--- a/excels/config/server/hero/server_skillful.xlsx
+++ b/excels/config/server/hero/server_skillful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="server_skillful" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
   <si>
     <t>下标</t>
   </si>
@@ -310,6 +310,12 @@
     <t>总等级*2%伤害</t>
   </si>
   <si>
+    <t>每升10级自动获得高阶精通点</t>
+  </si>
+  <si>
+    <t>共享等级</t>
+  </si>
+  <si>
     <t>线圈型</t>
   </si>
   <si>
@@ -337,6 +343,9 @@
     <t>理财型</t>
   </si>
   <si>
+    <t>总等级*1%经验获取</t>
+  </si>
+  <si>
     <t>成长型</t>
   </si>
   <si>
@@ -344,6 +353,12 @@
   </si>
   <si>
     <t>独立效果</t>
+  </si>
+  <si>
+    <t>总等级*2%经验获取</t>
+  </si>
+  <si>
+    <t>升级需要消耗1点高阶精通点</t>
   </si>
 </sst>
 </file>
@@ -1093,9 +1108,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1509,31 +1527,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{7A89B6B1-AF4C-43AC-BCE5-06B45233F835}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{7B213404-E9CB-47D7-9DA8-2AAF826F0C4A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{7728E22A-38C0-412B-9927-69701E1321CD}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{529AE68F-4110-40F2-8340-F766CCA2784B}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{BB3CF552-ED08-4CBC-AD38-6155CB481F3D}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{1AC8B8C1-F891-469B-9D04-09A8397E3585}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E2D0D21F-DDB5-477D-8847-359E35001379}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{46442378-D19D-4ED2-81A4-FD0B1BBF7192}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E61145AC-3FD4-4701-A798-636B485174B8}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F76994DD-53F1-4347-993C-D7A0728CDDDB}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1841,7 +1859,7 @@
   <sheetPr/>
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="C28" sqref="C28"/>
@@ -1857,798 +1875,798 @@
     <col min="6" max="7" width="13.5083333333333" customWidth="1"/>
     <col min="8" max="8" width="29.125" customWidth="1"/>
     <col min="9" max="9" width="26.675" customWidth="1"/>
-    <col min="10" max="10" width="17.175" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="16" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.34166666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.3416666666667" style="2" customWidth="1"/>
-    <col min="19" max="21" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6.55" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.175" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="16" width="6.24166666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.34166666666667" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.3416666666667" style="3" customWidth="1"/>
+    <col min="19" max="21" width="6.24166666666667" style="3" customWidth="1"/>
+    <col min="22" max="22" width="6.55" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4">
-        <v>0</v>
-      </c>
-      <c r="K1" s="4">
+      <c r="J1" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5">
         <v>1</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="5">
         <v>2</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="5">
         <v>3</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="5">
         <v>4</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="5">
         <v>5</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="5">
         <v>6</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="4">
-        <v>0</v>
-      </c>
-      <c r="S1" s="4">
+      <c r="R1" s="5">
+        <v>0</v>
+      </c>
+      <c r="S1" s="5">
         <v>1</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="5">
         <v>2</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="5">
         <v>3</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>1</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>2</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <v>3</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="8">
         <v>4</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="8">
         <v>5</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="8">
         <v>6</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="8">
         <v>1</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="8">
         <v>2</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="8">
         <v>3</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A3" s="9">
+    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <v>15</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="13">
         <f>(6000*4+500)*30</f>
         <v>735000</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="16"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="17"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:22">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="13">
         <v>15</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="13">
         <f>6000*4+1000</f>
         <v>25000</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="16"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="17"/>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:22">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="15"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="16"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <v>15</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="16"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="17"/>
     </row>
     <row r="7" ht="16.5" spans="2:7">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:7">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:7">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <v>3</v>
       </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:7">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <v>3</v>
       </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:7">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>3</v>
       </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:7">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>4</v>
       </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:7">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="12">
         <v>4</v>
       </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:7">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <v>4</v>
       </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:7">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="12">
         <v>5</v>
       </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:7">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12">
         <v>5</v>
       </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:7">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>5</v>
       </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:7">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="12">
         <v>6</v>
       </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:7">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <v>6</v>
       </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:7">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>6</v>
       </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:7">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="12">
         <v>7</v>
       </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:7">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="12">
         <v>7</v>
       </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:7">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="12">
         <v>7</v>
       </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:7">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="12">
         <v>8</v>
       </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:7">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <v>8</v>
       </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:7">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <v>8</v>
       </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12">
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:7">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="12">
         <v>9</v>
       </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:7">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <v>9</v>
       </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:7">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <v>10</v>
       </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12">
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:7">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <v>11</v>
       </c>
-      <c r="E30" s="12">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:7">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <v>12</v>
       </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:7">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="12">
         <v>13</v>
       </c>
-      <c r="E32" s="12">
-        <v>0</v>
-      </c>
-      <c r="G32" s="12">
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:7">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="12">
         <v>14</v>
       </c>
-      <c r="E33" s="12">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12">
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:7">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="12">
         <v>15</v>
       </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
+      <c r="E34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="5:7">
-      <c r="E35" s="12">
-        <v>0</v>
-      </c>
-      <c r="G35" s="12">
+      <c r="E35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2686,13 +2704,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
@@ -2715,7 +2733,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2725,144 +2743,224 @@
       <c r="C3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:E14"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/excels/config/server/hero/server_skillful.xlsx
+++ b/excels/config/server/hero/server_skillful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="server_skillful" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="129">
   <si>
     <t>下标</t>
   </si>
@@ -52,10 +52,16 @@
     <t>关联技能</t>
   </si>
   <si>
+    <t>通过其他条件解锁</t>
+  </si>
+  <si>
+    <t>特殊处理</t>
+  </si>
+  <si>
     <t>最大等级</t>
   </si>
   <si>
-    <t>经验值</t>
+    <t>所需经验</t>
   </si>
   <si>
     <t>图片</t>
@@ -70,16 +76,25 @@
     <t>key</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>is_ability</t>
   </si>
   <si>
     <t>link_ability</t>
   </si>
   <si>
+    <t>is_lock</t>
+  </si>
+  <si>
+    <t>unlock</t>
+  </si>
+  <si>
     <t>max_count</t>
   </si>
   <si>
-    <t>所需经验</t>
+    <t>exp</t>
   </si>
   <si>
     <t>img</t>
@@ -103,6 +118,12 @@
     <t>null</t>
   </si>
   <si>
+    <t>null|null</t>
+  </si>
+  <si>
+    <t>24500+lv*500</t>
+  </si>
+  <si>
     <t>abaddon_borrowed_time</t>
   </si>
   <si>
@@ -118,7 +139,7 @@
     <t>召唤型技能获得额外15%技能极速（可突破最大极速上限75%），召唤物造成伤害增加100%</t>
   </si>
   <si>
-    <t>1000|2000|5000|10000</t>
+    <t>1_10|2_10</t>
   </si>
   <si>
     <t>线圈增强</t>
@@ -139,6 +160,9 @@
     <t>线圈型技能范围扩大50%（离玩家距离），造成伤害增加100%</t>
   </si>
   <si>
+    <t>5_10|6_10</t>
+  </si>
+  <si>
     <t>快速环绕</t>
   </si>
   <si>
@@ -157,6 +181,9 @@
     <t>环绕型技能环绕范围扩大25%，伤害提升100%</t>
   </si>
   <si>
+    <t>7_10|8_10</t>
+  </si>
+  <si>
     <t>范围扩大</t>
   </si>
   <si>
@@ -175,6 +202,9 @@
     <t>范围型技能伤害降低30%，但再次释放时伤害翻倍。</t>
   </si>
   <si>
+    <t>10_10|11_10</t>
+  </si>
+  <si>
     <t>弹射增益</t>
   </si>
   <si>
@@ -193,6 +223,9 @@
     <t>弹射型技能技能对主目标之后的后续每个目标伤害递增10%</t>
   </si>
   <si>
+    <t>13_10|14_10</t>
+  </si>
+  <si>
     <t>弹道提速</t>
   </si>
   <si>
@@ -211,6 +244,9 @@
     <t>弹道型技能伤害提高50%，飞行距离增加50%</t>
   </si>
   <si>
+    <t>16_10|17_10</t>
+  </si>
+  <si>
     <t>多重目标</t>
   </si>
   <si>
@@ -307,7 +343,7 @@
     <t>召唤型</t>
   </si>
   <si>
-    <t>总等级*2%伤害</t>
+    <t>总等级*2%召唤伤害</t>
   </si>
   <si>
     <t>每升10级自动获得高阶精通点</t>
@@ -319,31 +355,55 @@
     <t>线圈型</t>
   </si>
   <si>
+    <t>总等级*2%线圈伤害</t>
+  </si>
+  <si>
     <t>环绕型</t>
   </si>
   <si>
+    <t>总等级*2%环绕伤害</t>
+  </si>
+  <si>
     <t>范围型</t>
   </si>
   <si>
+    <t>总等级*2%范围伤害</t>
+  </si>
+  <si>
     <t>弹射型</t>
   </si>
   <si>
+    <t>总等级*2%弹射伤害</t>
+  </si>
+  <si>
     <t>弹道型</t>
   </si>
   <si>
+    <t>总等级*2%弹道伤害</t>
+  </si>
+  <si>
     <t>目标型</t>
   </si>
   <si>
+    <t>总等级*2%目标伤害</t>
+  </si>
+  <si>
     <t>持续型</t>
   </si>
   <si>
+    <t>总等级*2%持续伤害</t>
+  </si>
+  <si>
     <t>法球型</t>
   </si>
   <si>
+    <t>总等级*2%法球伤害</t>
+  </si>
+  <si>
     <t>理财型</t>
   </si>
   <si>
-    <t>总等级*1%经验获取</t>
+    <t>总等级*1%经验获取百分比</t>
   </si>
   <si>
     <t>成长型</t>
@@ -355,7 +415,7 @@
     <t>独立效果</t>
   </si>
   <si>
-    <t>总等级*2%经验获取</t>
+    <t>总等级*2%经验获取百分比</t>
   </si>
   <si>
     <t>升级需要消耗1点高阶精通点</t>
@@ -1108,7 +1168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1178,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1145,14 +1208,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1527,31 +1590,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{7B213404-E9CB-47D7-9DA8-2AAF826F0C4A}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{05F60AD7-5225-45D0-AAA3-8C09D936E71A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{529AE68F-4110-40F2-8340-F766CCA2784B}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{EFC879F3-B873-471E-AEEB-43003EC3031A}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{1AC8B8C1-F891-469B-9D04-09A8397E3585}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{02465EDB-69CB-4C5A-B68C-F2AAE5993287}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{46442378-D19D-4ED2-81A4-FD0B1BBF7192}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1DB072E1-EBF7-458C-AFB6-A6747F14FFDA}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F76994DD-53F1-4347-993C-D7A0728CDDDB}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8DFEAFEA-8A36-4EC4-9552-A5FE404746CD}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1857,821 +1920,1353 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C28" sqref="C28"/>
+      <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.34166666666667" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="82.625" customWidth="1"/>
+    <col min="3" max="3" width="55.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="13.3416666666667" customWidth="1"/>
-    <col min="6" max="7" width="13.5083333333333" customWidth="1"/>
-    <col min="8" max="8" width="29.125" customWidth="1"/>
-    <col min="9" max="9" width="26.675" customWidth="1"/>
-    <col min="10" max="10" width="17.175" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7" style="3" customWidth="1"/>
-    <col min="14" max="16" width="6.24166666666667" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.34166666666667" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.3416666666667" style="3" customWidth="1"/>
-    <col min="19" max="21" width="6.24166666666667" style="3" customWidth="1"/>
-    <col min="22" max="22" width="6.55" style="3" customWidth="1"/>
+    <col min="6" max="9" width="13.5083333333333" customWidth="1"/>
+    <col min="10" max="10" width="29.125" customWidth="1"/>
+    <col min="11" max="11" width="26.675" customWidth="1"/>
+    <col min="12" max="12" width="17.175" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7" style="4" customWidth="1"/>
+    <col min="16" max="18" width="6.24166666666667" style="4" customWidth="1"/>
+    <col min="19" max="19" width="8.34166666666667" style="4" customWidth="1"/>
+    <col min="20" max="20" width="17.3416666666667" style="4" customWidth="1"/>
+    <col min="21" max="23" width="6.24166666666667" style="4" customWidth="1"/>
+    <col min="24" max="24" width="6.55" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="2" customFormat="1" ht="45" customHeight="1" spans="1:24">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1" s="5">
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1" s="6">
         <v>1</v>
       </c>
-      <c r="L1" s="5">
+      <c r="N1" s="6">
         <v>2</v>
       </c>
-      <c r="M1" s="5">
+      <c r="O1" s="6">
         <v>3</v>
       </c>
-      <c r="N1" s="5">
+      <c r="P1" s="6">
         <v>4</v>
       </c>
-      <c r="O1" s="5">
+      <c r="Q1" s="6">
         <v>5</v>
       </c>
-      <c r="P1" s="5">
+      <c r="R1" s="6">
         <v>6</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="6">
+        <v>0</v>
+      </c>
+      <c r="U1" s="6">
+        <v>1</v>
+      </c>
+      <c r="V1" s="6">
+        <v>2</v>
+      </c>
+      <c r="W1" s="6">
+        <v>3</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="45" customHeight="1" spans="1:24">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9">
+        <v>2</v>
+      </c>
+      <c r="O2" s="9">
+        <v>3</v>
+      </c>
+      <c r="P2" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>5</v>
+      </c>
+      <c r="R2" s="9">
+        <v>6</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="9">
+        <v>1</v>
+      </c>
+      <c r="V2" s="9">
+        <v>2</v>
+      </c>
+      <c r="W2" s="9">
+        <v>3</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="45" customHeight="1" spans="1:24">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="15">
+        <v>15</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" ht="45" customHeight="1" spans="1:24">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="15">
+        <v>15</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="18"/>
+    </row>
+    <row r="5" ht="45" customHeight="1" spans="1:24">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:24">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="15">
+        <v>15</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:11">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="15">
+        <v>15</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:11">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1" spans="1:11">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="15">
+        <v>15</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:11">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="15">
+        <v>15</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:11">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="R1" s="5">
-        <v>0</v>
-      </c>
-      <c r="S1" s="5">
+      <c r="B11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="15">
         <v>1</v>
       </c>
-      <c r="T1" s="5">
-        <v>2</v>
-      </c>
-      <c r="U1" s="5">
-        <v>3</v>
-      </c>
-      <c r="V1" s="15" t="s">
+      <c r="H11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1" spans="1:11">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A2" s="7" t="s">
+      <c r="B12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="14">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="15">
+        <v>15</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="45" customHeight="1" spans="1:11">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8" t="s">
+      <c r="B13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="15">
+        <v>15</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="45" customHeight="1" spans="1:11">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="45" customHeight="1" spans="1:11">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="B15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="14">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="15">
+        <v>15</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="45" customHeight="1" spans="1:11">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="B16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="15">
         <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1" spans="1:11">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="14">
+        <v>5</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1" spans="1:11">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="B18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="14">
+        <v>6</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="15">
+        <v>15</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1" spans="1:11">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="K2" s="8">
+      <c r="B19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="14">
+        <v>6</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="15">
+        <v>15</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="45" customHeight="1" spans="1:11">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="14">
+        <v>6</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15">
         <v>1</v>
       </c>
-      <c r="L2" s="8">
-        <v>2</v>
-      </c>
-      <c r="M2" s="8">
-        <v>3</v>
-      </c>
-      <c r="N2" s="8">
-        <v>4</v>
-      </c>
-      <c r="O2" s="8">
-        <v>5</v>
-      </c>
-      <c r="P2" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="8" t="s">
+      <c r="H20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="45" customHeight="1" spans="1:11">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="S2" s="8">
+      <c r="B21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="14">
+        <v>7</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="15">
+        <v>15</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" ht="45" customHeight="1" spans="1:11">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="14">
+        <v>7</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="15">
+        <v>15</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="45" customHeight="1" spans="1:11">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="14">
+        <v>7</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="15">
         <v>1</v>
       </c>
-      <c r="T2" s="8">
-        <v>2</v>
-      </c>
-      <c r="U2" s="8">
-        <v>3</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A3" s="10">
+      <c r="H23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="J23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="45" customHeight="1" spans="1:11">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="14">
+        <v>8</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="15">
+        <v>15</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="45" customHeight="1" spans="1:11">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="14">
+        <v>8</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="15">
+        <v>15</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="45" customHeight="1" spans="1:11">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="14">
+        <v>8</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="H26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" ht="45" customHeight="1" spans="1:11">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="14">
+        <v>9</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="15">
+        <v>10</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="45" customHeight="1" spans="1:11">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="14">
+        <v>9</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="15">
+        <v>10</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" ht="45" customHeight="1" spans="1:11">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="14">
+        <v>10</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="15">
+        <v>10</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="45" customHeight="1" spans="1:11">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="14">
+        <v>11</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="15">
+        <v>10</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="45" customHeight="1" spans="1:11">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="14">
+        <v>12</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="15">
+        <v>10</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" ht="45" customHeight="1" spans="1:11">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="14">
+        <v>13</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="15">
+        <v>10</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" ht="45" customHeight="1" spans="1:11">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="14">
+        <v>14</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="15">
+        <v>10</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" ht="45" customHeight="1" spans="1:11">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="14">
         <v>15</v>
       </c>
-      <c r="H3" s="13">
-        <f>(6000*4+500)*30</f>
-        <v>735000</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="17"/>
-    </row>
-    <row r="4" ht="39" customHeight="1" spans="1:22">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="13">
-        <v>15</v>
-      </c>
-      <c r="H4" s="13">
-        <f>6000*4+1000</f>
-        <v>25000</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="17"/>
-    </row>
-    <row r="5" ht="39" customHeight="1" spans="1:22">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="E34" s="15">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="G34" s="15">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="16"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="I34" s="15">
+        <v>10</v>
+      </c>
+      <c r="J34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="K34" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="14">
-        <v>2</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="13">
-        <v>15</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="17"/>
-    </row>
-    <row r="7" ht="16.5" spans="2:7">
-      <c r="B7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="2:7">
-      <c r="B8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="2:7">
-      <c r="B9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="12">
-        <v>3</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="2:7">
-      <c r="B10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="12">
-        <v>3</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="2:7">
-      <c r="B11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="12">
-        <v>3</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="2:7">
-      <c r="B12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="2:7">
-      <c r="B13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="12">
-        <v>4</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="2:7">
-      <c r="B14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="12">
-        <v>4</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="2:7">
-      <c r="B15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="12">
-        <v>5</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="2:7">
-      <c r="B16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="12">
-        <v>5</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="2:7">
-      <c r="B17" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="12">
-        <v>5</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="2:7">
-      <c r="B18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="12">
-        <v>6</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="2:7">
-      <c r="B19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="12">
-        <v>6</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="2:7">
-      <c r="B20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="12">
-        <v>6</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="2:7">
-      <c r="B21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="12">
-        <v>7</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="2:7">
-      <c r="B22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="12">
-        <v>7</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="2:7">
-      <c r="B23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="12">
-        <v>7</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="2:7">
-      <c r="B24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="12">
-        <v>8</v>
-      </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="2:7">
-      <c r="B25" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="12">
-        <v>8</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="2:7">
-      <c r="B26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="12">
-        <v>8</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="2:7">
-      <c r="B27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="12">
-        <v>9</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="2:7">
-      <c r="B28" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="12">
-        <v>9</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
-      <c r="G28" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="2:7">
-      <c r="B29" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="12">
-        <v>10</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="2:7">
-      <c r="B30" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="12">
-        <v>11</v>
-      </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="2:7">
-      <c r="B31" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="12">
-        <v>12</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="2:7">
-      <c r="B32" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="12">
-        <v>13</v>
-      </c>
-      <c r="E32" s="13">
-        <v>0</v>
-      </c>
-      <c r="G32" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="2:7">
-      <c r="B33" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="12">
-        <v>14</v>
-      </c>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-      <c r="G33" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="2:7">
-      <c r="B34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="12">
-        <v>15</v>
-      </c>
-      <c r="E34" s="13">
-        <v>0</v>
-      </c>
-      <c r="G34" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="5:7">
-      <c r="E35" s="13">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E35">
+  <conditionalFormatting sqref="E3:E34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2683,7 +3278,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E2 E36:E1048576">
+  <conditionalFormatting sqref="E1:E2 E35:E1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2706,8 +3301,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2722,15 +3317,15 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2738,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2755,13 +3350,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -2770,13 +3365,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2785,13 +3380,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2800,13 +3395,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2815,13 +3410,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2830,13 +3425,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2845,13 +3440,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2860,13 +3455,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2875,13 +3470,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2890,13 +3485,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
         <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -2905,13 +3500,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2920,13 +3515,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2934,13 +3529,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2948,13 +3543,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +3567,7 @@
   <dimension ref="A2:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/excels/config/server/hero/server_skillful.xlsx
+++ b/excels/config/server/hero/server_skillful.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="server_skillful" sheetId="1" r:id="rId1"/>
-    <sheet name="server_skill_exp" sheetId="3" r:id="rId2"/>
+    <sheet name="server_skill_exp" sheetId="3" r:id="rId1"/>
+    <sheet name="server_skillful" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_skillful!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">server_skillful!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="125">
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>效果说明</t>
+  </si>
+  <si>
+    <t>特殊说明</t>
+  </si>
+  <si>
+    <t>最大等级</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>升级公式</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>max_level</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>AbilityValues[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>召唤型</t>
+  </si>
+  <si>
+    <t>总等级*2%召唤伤害</t>
+  </si>
+  <si>
+    <t>每升10级自动获得高阶精通点</t>
+  </si>
+  <si>
+    <t>abaddon_borrowed_time</t>
+  </si>
+  <si>
+    <t>24500+lv*500</t>
+  </si>
+  <si>
+    <t>线圈型</t>
+  </si>
+  <si>
+    <t>总等级*2%线圈伤害</t>
+  </si>
+  <si>
+    <t>环绕型</t>
+  </si>
+  <si>
+    <t>总等级*2%环绕伤害</t>
+  </si>
+  <si>
+    <t>范围型</t>
+  </si>
+  <si>
+    <t>总等级*2%范围伤害</t>
+  </si>
+  <si>
+    <t>弹射型</t>
+  </si>
+  <si>
+    <t>总等级*2%弹射伤害</t>
+  </si>
+  <si>
+    <t>弹道型</t>
+  </si>
+  <si>
+    <t>总等级*2%弹道伤害</t>
+  </si>
+  <si>
+    <t>目标型</t>
+  </si>
+  <si>
+    <t>总等级*2%目标伤害</t>
+  </si>
+  <si>
+    <t>持续型</t>
+  </si>
+  <si>
+    <t>总等级*2%持续伤害</t>
+  </si>
+  <si>
+    <t>法球型</t>
+  </si>
+  <si>
+    <t>总等级*2%法球伤害</t>
+  </si>
+  <si>
+    <t>理财型</t>
+  </si>
+  <si>
+    <t>总等级*1%经验获取百分比</t>
+  </si>
+  <si>
+    <t>成长型</t>
+  </si>
+  <si>
+    <t>增益型</t>
+  </si>
+  <si>
+    <t>独立效果</t>
+  </si>
+  <si>
+    <t>总等级*2%经验获取百分比</t>
+  </si>
+  <si>
+    <t>升级需要消耗1点高阶精通点</t>
+  </si>
   <si>
     <t>下标</t>
   </si>
@@ -40,34 +166,19 @@
     <t>说明</t>
   </si>
   <si>
-    <t>效果说明</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
     <t>是否为技能</t>
   </si>
   <si>
     <t>关联技能</t>
   </si>
   <si>
-    <t>通过其他条件解锁</t>
-  </si>
-  <si>
-    <t>特殊处理</t>
-  </si>
-  <si>
-    <t>最大等级</t>
-  </si>
-  <si>
-    <t>所需经验</t>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>结束</t>
+    <t>顺序</t>
+  </si>
+  <si>
+    <t>1为20总等级解锁</t>
+  </si>
+  <si>
+    <t>生效等级区间</t>
   </si>
   <si>
     <t>E</t>
@@ -85,27 +196,15 @@
     <t>link_ability</t>
   </si>
   <si>
+    <t>goods</t>
+  </si>
+  <si>
     <t>is_lock</t>
   </si>
   <si>
-    <t>unlock</t>
-  </si>
-  <si>
     <t>max_count</t>
   </si>
   <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>AbilityValues[{]</t>
-  </si>
-  <si>
-    <t>[}]</t>
-  </si>
-  <si>
     <t>ObjectValues[{]</t>
   </si>
   <si>
@@ -118,13 +217,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>null|null</t>
-  </si>
-  <si>
-    <t>24500+lv*500</t>
-  </si>
-  <si>
-    <t>abaddon_borrowed_time</t>
+    <t>1-15</t>
   </si>
   <si>
     <t>强力召唤</t>
@@ -133,15 +226,15 @@
     <t>召唤物强度（攻击力、生命值、攻击速度）增强(LV*10)%</t>
   </si>
   <si>
+    <t>16-30</t>
+  </si>
+  <si>
     <t>召唤·进化</t>
   </si>
   <si>
     <t>召唤型技能获得额外15%技能极速（可突破最大极速上限75%），召唤物造成伤害增加100%</t>
   </si>
   <si>
-    <t>1_10|2_10</t>
-  </si>
-  <si>
     <t>线圈增强</t>
   </si>
   <si>
@@ -160,9 +253,6 @@
     <t>线圈型技能范围扩大50%（离玩家距离），造成伤害增加100%</t>
   </si>
   <si>
-    <t>5_10|6_10</t>
-  </si>
-  <si>
     <t>快速环绕</t>
   </si>
   <si>
@@ -181,9 +271,6 @@
     <t>环绕型技能环绕范围扩大25%，伤害提升100%</t>
   </si>
   <si>
-    <t>7_10|8_10</t>
-  </si>
-  <si>
     <t>范围扩大</t>
   </si>
   <si>
@@ -202,9 +289,6 @@
     <t>范围型技能伤害降低30%，但再次释放时伤害翻倍。</t>
   </si>
   <si>
-    <t>10_10|11_10</t>
-  </si>
-  <si>
     <t>弹射增益</t>
   </si>
   <si>
@@ -223,9 +307,6 @@
     <t>弹射型技能技能对主目标之后的后续每个目标伤害递增10%</t>
   </si>
   <si>
-    <t>13_10|14_10</t>
-  </si>
-  <si>
     <t>弹道提速</t>
   </si>
   <si>
@@ -244,9 +325,6 @@
     <t>弹道型技能伤害提高50%，飞行距离增加50%</t>
   </si>
   <si>
-    <t>16_10|17_10</t>
-  </si>
-  <si>
     <t>多重目标</t>
   </si>
   <si>
@@ -329,96 +407,6 @@
   </si>
   <si>
     <t>技能蓝耗降低(lv*5)%</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>效果</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>召唤型</t>
-  </si>
-  <si>
-    <t>总等级*2%召唤伤害</t>
-  </si>
-  <si>
-    <t>每升10级自动获得高阶精通点</t>
-  </si>
-  <si>
-    <t>共享等级</t>
-  </si>
-  <si>
-    <t>线圈型</t>
-  </si>
-  <si>
-    <t>总等级*2%线圈伤害</t>
-  </si>
-  <si>
-    <t>环绕型</t>
-  </si>
-  <si>
-    <t>总等级*2%环绕伤害</t>
-  </si>
-  <si>
-    <t>范围型</t>
-  </si>
-  <si>
-    <t>总等级*2%范围伤害</t>
-  </si>
-  <si>
-    <t>弹射型</t>
-  </si>
-  <si>
-    <t>总等级*2%弹射伤害</t>
-  </si>
-  <si>
-    <t>弹道型</t>
-  </si>
-  <si>
-    <t>总等级*2%弹道伤害</t>
-  </si>
-  <si>
-    <t>目标型</t>
-  </si>
-  <si>
-    <t>总等级*2%目标伤害</t>
-  </si>
-  <si>
-    <t>持续型</t>
-  </si>
-  <si>
-    <t>总等级*2%持续伤害</t>
-  </si>
-  <si>
-    <t>法球型</t>
-  </si>
-  <si>
-    <t>总等级*2%法球伤害</t>
-  </si>
-  <si>
-    <t>理财型</t>
-  </si>
-  <si>
-    <t>总等级*1%经验获取百分比</t>
-  </si>
-  <si>
-    <t>成长型</t>
-  </si>
-  <si>
-    <t>增益型</t>
-  </si>
-  <si>
-    <t>独立效果</t>
-  </si>
-  <si>
-    <t>总等级*2%经验获取百分比</t>
-  </si>
-  <si>
-    <t>升级需要消耗1点高阶精通点</t>
   </si>
 </sst>
 </file>
@@ -1168,53 +1156,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1224,6 +1212,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1590,31 +1584,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{05F60AD7-5225-45D0-AAA3-8C09D936E71A}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{3D7C3145-F3F7-4CFC-B05C-01E407A046B8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{EFC879F3-B873-471E-AEEB-43003EC3031A}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{2FFFBCD2-EFB5-4935-9899-7CD90B62535D}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{02465EDB-69CB-4C5A-B68C-F2AAE5993287}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{D04E208B-6B8E-4DF6-B90A-8697D53FFC60}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1DB072E1-EBF7-458C-AFB6-A6747F14FFDA}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{14E097C9-A7C4-437C-B0DE-43AC72F278DF}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8DFEAFEA-8A36-4EC4-9552-A5FE404746CD}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E96E4EE8-9BE3-4AE2-B715-825F2E3174BF}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1920,1349 +1914,1700 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="19" customWidth="1"/>
+    <col min="6" max="7" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="33" spans="1:15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7">
+        <v>3</v>
+      </c>
+      <c r="L2" s="7">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7">
+        <v>5</v>
+      </c>
+      <c r="N2" s="7">
+        <v>6</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="19">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19">
+        <v>30</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="19">
+        <v>30</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="57" customHeight="1" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="19">
+        <v>30</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="19">
+        <v>30</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="19">
+        <v>30</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="19">
+        <v>30</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="57" customHeight="1" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="19">
+        <v>30</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="57" customHeight="1" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="19">
+        <v>30</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="57" customHeight="1" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="19">
+        <v>30</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="57" customHeight="1" spans="1:7">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="19">
+        <v>30</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="57" customHeight="1" spans="1:7">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="19">
+        <v>30</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="57" customHeight="1" spans="1:7">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="19">
+        <v>30</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="57" customHeight="1" spans="1:7">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="19">
+        <v>30</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:7">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="19">
+        <v>30</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.34166666666667" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="55.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="13.3416666666667" customWidth="1"/>
     <col min="6" max="9" width="13.5083333333333" customWidth="1"/>
-    <col min="10" max="10" width="29.125" customWidth="1"/>
-    <col min="11" max="11" width="26.675" customWidth="1"/>
-    <col min="12" max="12" width="17.175" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="7" style="4" customWidth="1"/>
-    <col min="16" max="18" width="6.24166666666667" style="4" customWidth="1"/>
-    <col min="19" max="19" width="8.34166666666667" style="4" customWidth="1"/>
-    <col min="20" max="20" width="17.3416666666667" style="4" customWidth="1"/>
-    <col min="21" max="23" width="6.24166666666667" style="4" customWidth="1"/>
-    <col min="24" max="24" width="6.55" style="4" customWidth="1"/>
+    <col min="10" max="10" width="26.675" customWidth="1"/>
+    <col min="11" max="11" width="17.175" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" customWidth="1"/>
+    <col min="15" max="17" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.34166666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.3416666666667" style="2" customWidth="1"/>
+    <col min="20" max="22" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="23" max="23" width="6.55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:23">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="M1" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="N1" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="O1" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="P1" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="Q1" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="S1" s="4">
+        <v>0</v>
+      </c>
+      <c r="T1" s="4">
+        <v>1</v>
+      </c>
+      <c r="U1" s="4">
+        <v>2</v>
+      </c>
+      <c r="V1" s="4">
+        <v>3</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:23">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>2</v>
+      </c>
+      <c r="N2" s="7">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7">
+        <v>4</v>
+      </c>
+      <c r="P2" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>6</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="7">
+        <v>1</v>
+      </c>
+      <c r="U2" s="7">
+        <v>2</v>
+      </c>
+      <c r="V2" s="7">
+        <v>3</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:23">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" ht="45" customHeight="1" spans="1:23">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" ht="45" customHeight="1" spans="1:23">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="13">
+        <v>3</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>20</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:23">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:10">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:10">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>20</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1" spans="1:10">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:10">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="B10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="13">
+        <v>2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:10">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="B11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="12">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
+        <v>20</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1" spans="1:10">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="L1" s="6">
-        <v>0</v>
-      </c>
-      <c r="M1" s="6">
+      <c r="B12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="N1" s="6">
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="45" customHeight="1" spans="1:10">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="12">
+        <v>4</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="13">
         <v>2</v>
       </c>
-      <c r="O1" s="6">
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="45" customHeight="1" spans="1:10">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="12">
+        <v>4</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="13">
         <v>3</v>
       </c>
-      <c r="P1" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="6">
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="13">
+        <v>20</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="45" customHeight="1" spans="1:10">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="12">
         <v>5</v>
       </c>
-      <c r="R1" s="6">
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="45" customHeight="1" spans="1:10">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="12">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1" spans="1:10">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="12">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="13">
+        <v>3</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13">
+        <v>20</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1" spans="1:10">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="12">
         <v>6</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1" spans="1:10">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="12">
+        <v>6</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="45" customHeight="1" spans="1:10">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="12">
+        <v>6</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="13">
+        <v>3</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="13">
+        <v>20</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="45" customHeight="1" spans="1:10">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="12">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" ht="45" customHeight="1" spans="1:10">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="12">
+        <v>7</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="13">
+        <v>2</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" ht="45" customHeight="1" spans="1:10">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="12">
+        <v>7</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="13">
+        <v>3</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13">
+        <v>20</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" ht="45" customHeight="1" spans="1:10">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="12">
+        <v>8</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" ht="45" customHeight="1" spans="1:10">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="12">
+        <v>8</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="13">
+        <v>2</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" ht="45" customHeight="1" spans="1:10">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="12">
+        <v>8</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="13">
+        <v>3</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13">
+        <v>20</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" ht="45" customHeight="1" spans="1:10">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="12">
+        <v>9</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="45" customHeight="1" spans="1:10">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="12">
+        <v>9</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="13">
+        <v>2</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" ht="45" customHeight="1" spans="1:10">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="12">
+        <v>10</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" ht="45" customHeight="1" spans="1:10">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="12">
         <v>11</v>
       </c>
-      <c r="T1" s="6">
-        <v>0</v>
-      </c>
-      <c r="U1" s="6">
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="13">
         <v>1</v>
       </c>
-      <c r="V1" s="6">
-        <v>2</v>
-      </c>
-      <c r="W1" s="6">
-        <v>3</v>
-      </c>
-      <c r="X1" s="16" t="s">
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" ht="45" customHeight="1" spans="1:10">
+      <c r="A31" s="9">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A2" s="8" t="s">
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" ht="45" customHeight="1" spans="1:10">
+      <c r="A32" s="9">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="12">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" ht="45" customHeight="1" spans="1:10">
+      <c r="A33" s="9">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="12">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" ht="45" customHeight="1" spans="1:10">
+      <c r="A34" s="9">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="12">
         <v>15</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="9">
+      <c r="E34" s="13">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="13">
         <v>1</v>
       </c>
-      <c r="N2" s="9">
-        <v>2</v>
-      </c>
-      <c r="O2" s="9">
-        <v>3</v>
-      </c>
-      <c r="P2" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>5</v>
-      </c>
-      <c r="R2" s="9">
-        <v>6</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="9">
-        <v>1</v>
-      </c>
-      <c r="V2" s="9">
-        <v>2</v>
-      </c>
-      <c r="W2" s="9">
-        <v>3</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="15">
-        <v>15</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="18"/>
-    </row>
-    <row r="4" ht="45" customHeight="1" spans="1:24">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="15">
-        <v>15</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="18"/>
-    </row>
-    <row r="5" ht="45" customHeight="1" spans="1:24">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="17"/>
-    </row>
-    <row r="6" ht="45" customHeight="1" spans="1:24">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="15">
-        <v>15</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="18"/>
-    </row>
-    <row r="7" ht="45" customHeight="1" spans="1:11">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="15">
-        <v>15</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="45" customHeight="1" spans="1:11">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="45" customHeight="1" spans="1:11">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="14">
-        <v>3</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="15">
-        <v>15</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" ht="45" customHeight="1" spans="1:11">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="14">
-        <v>3</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="15">
-        <v>15</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" ht="45" customHeight="1" spans="1:11">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="14">
-        <v>3</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" ht="45" customHeight="1" spans="1:11">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="14">
-        <v>4</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="15">
-        <v>15</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" ht="45" customHeight="1" spans="1:11">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="14">
-        <v>4</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="15">
-        <v>15</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="45" customHeight="1" spans="1:11">
-      <c r="A14" s="11">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="14">
-        <v>4</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" ht="45" customHeight="1" spans="1:11">
-      <c r="A15" s="11">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="14">
-        <v>5</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="15">
-        <v>15</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" ht="45" customHeight="1" spans="1:11">
-      <c r="A16" s="11">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="14">
-        <v>5</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="15">
-        <v>15</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="45" customHeight="1" spans="1:11">
-      <c r="A17" s="11">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="14">
-        <v>5</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="15">
-        <v>1</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="45" customHeight="1" spans="1:11">
-      <c r="A18" s="11">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="14">
-        <v>6</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="15">
-        <v>15</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" ht="45" customHeight="1" spans="1:11">
-      <c r="A19" s="11">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="14">
-        <v>6</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="15">
-        <v>15</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" ht="45" customHeight="1" spans="1:11">
-      <c r="A20" s="11">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="14">
-        <v>6</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="15">
-        <v>1</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" ht="45" customHeight="1" spans="1:11">
-      <c r="A21" s="11">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="14">
-        <v>7</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="15">
-        <v>15</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" ht="45" customHeight="1" spans="1:11">
-      <c r="A22" s="11">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="14">
-        <v>7</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="15">
-        <v>15</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" ht="45" customHeight="1" spans="1:11">
-      <c r="A23" s="11">
-        <v>21</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="14">
-        <v>7</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="15">
-        <v>1</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="15">
-        <v>1</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" ht="45" customHeight="1" spans="1:11">
-      <c r="A24" s="11">
-        <v>22</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="14">
-        <v>8</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="15">
-        <v>15</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" ht="45" customHeight="1" spans="1:11">
-      <c r="A25" s="11">
-        <v>23</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="14">
-        <v>8</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="15">
-        <v>15</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" ht="45" customHeight="1" spans="1:11">
-      <c r="A26" s="11">
-        <v>24</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="14">
-        <v>8</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="15">
-        <v>1</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="15">
-        <v>1</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" ht="45" customHeight="1" spans="1:11">
-      <c r="A27" s="11">
-        <v>25</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="14">
-        <v>9</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="15">
-        <v>10</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" ht="45" customHeight="1" spans="1:11">
-      <c r="A28" s="11">
-        <v>26</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="14">
-        <v>9</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="15">
-        <v>10</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" ht="45" customHeight="1" spans="1:11">
-      <c r="A29" s="11">
-        <v>27</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="14">
-        <v>10</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="15">
-        <v>10</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" ht="45" customHeight="1" spans="1:11">
-      <c r="A30" s="11">
-        <v>28</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="14">
-        <v>11</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="15">
-        <v>10</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" ht="45" customHeight="1" spans="1:11">
-      <c r="A31" s="11">
-        <v>29</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="14">
-        <v>12</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="15">
-        <v>10</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" ht="45" customHeight="1" spans="1:11">
-      <c r="A32" s="11">
-        <v>30</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="14">
-        <v>13</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="15">
-        <v>0</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="15">
-        <v>10</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" ht="45" customHeight="1" spans="1:11">
-      <c r="A33" s="11">
-        <v>31</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="14">
-        <v>14</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="15">
-        <v>0</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="15">
-        <v>10</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" ht="45" customHeight="1" spans="1:11">
-      <c r="A34" s="11">
-        <v>32</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="14">
-        <v>15</v>
-      </c>
-      <c r="E34" s="15">
-        <v>0</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="15">
-        <v>0</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="15">
-        <v>10</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>30</v>
+      <c r="J34" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3296,271 +3641,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="32.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E3:E14"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>

--- a/excels/config/server/hero/server_skillful.xlsx
+++ b/excels/config/server/hero/server_skillful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
+    <workbookView windowWidth="22185" windowHeight="10155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="server_skill_exp" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="124">
   <si>
     <t>类型</t>
   </si>
@@ -178,7 +178,10 @@
     <t>1为20总等级解锁</t>
   </si>
   <si>
-    <t>生效等级区间</t>
+    <t>最小生效等级区间（生效时会减去最小等级后+1）</t>
+  </si>
+  <si>
+    <t>最大生效等级区间（超过此等级 取此等级作最大等级）</t>
   </si>
   <si>
     <t>E</t>
@@ -202,7 +205,7 @@
     <t>is_lock</t>
   </si>
   <si>
-    <t>max_count</t>
+    <t>min_level</t>
   </si>
   <si>
     <t>ObjectValues[{]</t>
@@ -217,16 +220,10 @@
     <t>null</t>
   </si>
   <si>
-    <t>1-15</t>
-  </si>
-  <si>
     <t>强力召唤</t>
   </si>
   <si>
     <t>召唤物强度（攻击力、生命值、攻击速度）增强(LV*10)%</t>
-  </si>
-  <si>
-    <t>16-30</t>
   </si>
   <si>
     <t>召唤·进化</t>
@@ -1156,7 +1153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,7 +1199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1213,9 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1584,31 +1578,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{3D7C3145-F3F7-4CFC-B05C-01E407A046B8}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{32948870-B213-452A-9F70-654B870539D8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{2FFFBCD2-EFB5-4935-9899-7CD90B62535D}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{1D6A7665-95FE-4681-BFE1-705F8AF7587B}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{D04E208B-6B8E-4DF6-B90A-8697D53FFC60}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{16DA9680-E265-4659-B1D9-9AB1293220A9}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{14E097C9-A7C4-437C-B0DE-43AC72F278DF}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9B0768A7-3026-4C93-A312-AFB5657F8779}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E96E4EE8-9BE3-4AE2-B715-825F2E3174BF}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F110C9C1-EE3D-47C8-80B1-EC4FF6A545B5}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1916,8 +1910,8 @@
   <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1925,7 +1919,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="32.125" customWidth="1"/>
-    <col min="5" max="5" width="32.125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="14" customWidth="1"/>
     <col min="6" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1942,7 +1936,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1980,7 +1974,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2027,13 +2021,13 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="14">
         <v>30</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2050,13 +2044,13 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <v>30</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2073,13 +2067,13 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="14">
         <v>30</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2096,13 +2090,13 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <v>30</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2119,13 +2113,13 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="14">
         <v>30</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2142,13 +2136,13 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="14">
         <v>30</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2165,13 +2159,13 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="14">
         <v>30</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2188,13 +2182,13 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="14">
         <v>30</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2211,13 +2205,13 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="14">
         <v>30</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2234,13 +2228,13 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="14">
         <v>30</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2257,13 +2251,13 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="14">
         <v>30</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2280,13 +2274,13 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="14">
         <v>30</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2303,13 +2297,13 @@
       <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="14">
         <v>30</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2326,13 +2320,13 @@
       <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="14">
         <v>30</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2349,13 +2343,13 @@
       <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="14">
         <v>30</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2368,12 +2362,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2383,20 +2377,22 @@
     <col min="3" max="3" width="55.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="13.3416666666667" customWidth="1"/>
-    <col min="6" max="9" width="13.5083333333333" customWidth="1"/>
-    <col min="10" max="10" width="26.675" customWidth="1"/>
-    <col min="11" max="11" width="17.175" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7" style="2" customWidth="1"/>
-    <col min="15" max="17" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.34166666666667" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.3416666666667" style="2" customWidth="1"/>
-    <col min="20" max="22" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="6.55" style="2" customWidth="1"/>
+    <col min="6" max="8" width="13.5083333333333" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="10" max="10" width="22.25" customWidth="1"/>
+    <col min="11" max="11" width="26.675" customWidth="1"/>
+    <col min="12" max="12" width="17.175" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7" style="2" customWidth="1"/>
+    <col min="16" max="18" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.34166666666667" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.3416666666667" style="2" customWidth="1"/>
+    <col min="21" max="23" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="24" max="24" width="6.55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:23">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
@@ -2425,124 +2421,130 @@
         <v>48</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4">
-        <v>0</v>
-      </c>
       <c r="L1" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1" s="4">
+        <v>1</v>
+      </c>
+      <c r="N1" s="4">
         <v>2</v>
       </c>
-      <c r="N1" s="4">
+      <c r="O1" s="4">
         <v>3</v>
       </c>
-      <c r="O1" s="4">
+      <c r="P1" s="4">
         <v>4</v>
       </c>
-      <c r="P1" s="4">
+      <c r="Q1" s="4">
         <v>5</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="R1" s="4">
         <v>6</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="4">
-        <v>0</v>
-      </c>
       <c r="T1" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1" s="4">
+        <v>1</v>
+      </c>
+      <c r="V1" s="4">
         <v>2</v>
       </c>
-      <c r="V1" s="4">
+      <c r="W1" s="4">
         <v>3</v>
       </c>
-      <c r="W1" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:23">
+      <c r="X1" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7">
-        <v>1</v>
-      </c>
       <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
         <v>2</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>3</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>4</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q2" s="7">
         <v>5</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="R2" s="7">
         <v>6</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="7">
-        <v>1</v>
+      <c r="T2" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="U2" s="7">
+        <v>1</v>
+      </c>
+      <c r="V2" s="7">
         <v>2</v>
       </c>
-      <c r="V2" s="7">
+      <c r="W2" s="7">
         <v>3</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:23">
+    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -2551,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="13">
         <v>1</v>
@@ -2559,13 +2561,15 @@
       <c r="H3" s="13">
         <v>0</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="13"/>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <v>15</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -2577,9 +2581,10 @@
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" ht="45" customHeight="1" spans="1:23">
+      <c r="W3" s="13"/>
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" ht="45" customHeight="1" spans="1:24">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2596,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="13">
         <v>2</v>
@@ -2604,13 +2609,15 @@
       <c r="H4" s="13">
         <v>0</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="13"/>
+      <c r="I4" s="13">
+        <v>16</v>
+      </c>
+      <c r="J4" s="13">
+        <v>30</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
@@ -2622,18 +2629,19 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="5" ht="45" customHeight="1" spans="1:23">
+      <c r="W4" s="13"/>
+      <c r="X4" s="18"/>
+    </row>
+    <row r="5" ht="45" customHeight="1" spans="1:24">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="D5" s="12">
         <v>1</v>
       </c>
@@ -2641,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="13">
         <v>3</v>
@@ -2652,10 +2660,12 @@
       <c r="I5" s="13">
         <v>20</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5"/>
+      <c r="J5" s="13">
+        <v>20</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -2668,16 +2678,17 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
-    </row>
-    <row r="6" ht="45" customHeight="1" spans="1:23">
+      <c r="X5"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:24">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="D6" s="14">
         <v>2</v>
@@ -2686,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="13">
         <v>1</v>
@@ -2694,13 +2705,15 @@
       <c r="H6" s="13">
         <v>0</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="13"/>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>15</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
@@ -2712,17 +2725,18 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
-      <c r="W6" s="18"/>
-    </row>
-    <row r="7" ht="45" customHeight="1" spans="1:10">
+      <c r="W6" s="13"/>
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:11">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="D7" s="12">
         <v>2</v>
@@ -2731,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="13">
         <v>2</v>
@@ -2739,22 +2753,25 @@
       <c r="H7" s="13">
         <v>0</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="45" customHeight="1" spans="1:10">
+      <c r="I7" s="13">
+        <v>16</v>
+      </c>
+      <c r="J7" s="13">
+        <v>30</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:11">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="D8" s="12">
         <v>2</v>
@@ -2763,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="13">
         <v>3</v>
@@ -2774,19 +2791,22 @@
       <c r="I8" s="13">
         <v>20</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" ht="45" customHeight="1" spans="1:10">
+      <c r="J8" s="13">
+        <v>20</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1" spans="1:11">
       <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="D9" s="12">
         <v>3</v>
@@ -2795,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="13">
         <v>1</v>
@@ -2803,22 +2823,25 @@
       <c r="H9" s="13">
         <v>0</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="45" customHeight="1" spans="1:10">
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <v>15</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:11">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="D10" s="12">
         <v>3</v>
@@ -2827,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="13">
         <v>2</v>
@@ -2835,22 +2858,25 @@
       <c r="H10" s="13">
         <v>0</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="45" customHeight="1" spans="1:10">
+      <c r="I10" s="13">
+        <v>16</v>
+      </c>
+      <c r="J10" s="13">
+        <v>30</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:11">
       <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="D11" s="12">
         <v>3</v>
@@ -2859,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="13">
         <v>3</v>
@@ -2870,19 +2896,22 @@
       <c r="I11" s="13">
         <v>20</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="45" customHeight="1" spans="1:10">
+      <c r="J11" s="13">
+        <v>20</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1" spans="1:11">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="D12" s="12">
         <v>4</v>
@@ -2891,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="13">
         <v>1</v>
@@ -2899,22 +2928,25 @@
       <c r="H12" s="13">
         <v>0</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="45" customHeight="1" spans="1:10">
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15">
+        <v>15</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="45" customHeight="1" spans="1:11">
       <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="D13" s="12">
         <v>4</v>
@@ -2923,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="13">
         <v>2</v>
@@ -2931,22 +2963,25 @@
       <c r="H13" s="13">
         <v>0</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" ht="45" customHeight="1" spans="1:10">
+      <c r="I13" s="13">
+        <v>16</v>
+      </c>
+      <c r="J13" s="13">
+        <v>30</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="45" customHeight="1" spans="1:11">
       <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="D14" s="12">
         <v>4</v>
@@ -2955,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="13">
         <v>3</v>
@@ -2966,19 +3001,22 @@
       <c r="I14" s="13">
         <v>20</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="45" customHeight="1" spans="1:10">
+      <c r="J14" s="13">
+        <v>20</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="45" customHeight="1" spans="1:11">
       <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="D15" s="12">
         <v>5</v>
@@ -2987,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="13">
         <v>1</v>
@@ -2995,22 +3033,25 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" ht="45" customHeight="1" spans="1:10">
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
+        <v>15</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="45" customHeight="1" spans="1:11">
       <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="D16" s="12">
         <v>5</v>
@@ -3019,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="13">
         <v>2</v>
@@ -3027,22 +3068,25 @@
       <c r="H16" s="13">
         <v>0</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" ht="45" customHeight="1" spans="1:10">
+      <c r="I16" s="13">
+        <v>16</v>
+      </c>
+      <c r="J16" s="13">
+        <v>30</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1" spans="1:11">
       <c r="A17" s="9">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
@@ -3051,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" s="13">
         <v>3</v>
@@ -3062,19 +3106,22 @@
       <c r="I17" s="13">
         <v>20</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="45" customHeight="1" spans="1:10">
+      <c r="J17" s="13">
+        <v>20</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1" spans="1:11">
       <c r="A18" s="9">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="D18" s="12">
         <v>6</v>
@@ -3083,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="13">
         <v>1</v>
@@ -3091,22 +3138,25 @@
       <c r="H18" s="13">
         <v>0</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" ht="45" customHeight="1" spans="1:10">
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
+        <v>15</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1" spans="1:11">
       <c r="A19" s="9">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -3115,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="13">
         <v>2</v>
@@ -3123,22 +3173,25 @@
       <c r="H19" s="13">
         <v>0</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="45" customHeight="1" spans="1:10">
+      <c r="I19" s="13">
+        <v>16</v>
+      </c>
+      <c r="J19" s="13">
+        <v>30</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="45" customHeight="1" spans="1:11">
       <c r="A20" s="9">
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="D20" s="12">
         <v>6</v>
@@ -3147,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" s="13">
         <v>3</v>
@@ -3158,19 +3211,22 @@
       <c r="I20" s="13">
         <v>20</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" ht="45" customHeight="1" spans="1:10">
+      <c r="J20" s="13">
+        <v>20</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="45" customHeight="1" spans="1:11">
       <c r="A21" s="9">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="D21" s="12">
         <v>7</v>
@@ -3179,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G21" s="13">
         <v>1</v>
@@ -3187,22 +3243,25 @@
       <c r="H21" s="13">
         <v>0</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" ht="45" customHeight="1" spans="1:10">
+      <c r="I21" s="15">
+        <v>1</v>
+      </c>
+      <c r="J21" s="15">
+        <v>15</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" ht="45" customHeight="1" spans="1:11">
       <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="D22" s="12">
         <v>7</v>
@@ -3211,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" s="13">
         <v>2</v>
@@ -3219,22 +3278,25 @@
       <c r="H22" s="13">
         <v>0</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" ht="45" customHeight="1" spans="1:10">
+      <c r="I22" s="13">
+        <v>16</v>
+      </c>
+      <c r="J22" s="13">
+        <v>30</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" ht="45" customHeight="1" spans="1:11">
       <c r="A23" s="9">
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="D23" s="12">
         <v>7</v>
@@ -3243,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G23" s="13">
         <v>3</v>
@@ -3254,19 +3316,22 @@
       <c r="I23" s="13">
         <v>20</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" ht="45" customHeight="1" spans="1:10">
+      <c r="J23" s="13">
+        <v>20</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" ht="45" customHeight="1" spans="1:11">
       <c r="A24" s="9">
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="D24" s="12">
         <v>8</v>
@@ -3275,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G24" s="13">
         <v>1</v>
@@ -3283,22 +3348,25 @@
       <c r="H24" s="13">
         <v>0</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" ht="45" customHeight="1" spans="1:10">
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15">
+        <v>15</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" ht="45" customHeight="1" spans="1:11">
       <c r="A25" s="9">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="D25" s="12">
         <v>8</v>
@@ -3307,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G25" s="13">
         <v>2</v>
@@ -3315,22 +3383,25 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" ht="45" customHeight="1" spans="1:10">
+      <c r="I25" s="13">
+        <v>16</v>
+      </c>
+      <c r="J25" s="13">
+        <v>30</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" ht="45" customHeight="1" spans="1:11">
       <c r="A26" s="9">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="D26" s="12">
         <v>8</v>
@@ -3339,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G26" s="13">
         <v>3</v>
@@ -3350,19 +3421,22 @@
       <c r="I26" s="13">
         <v>20</v>
       </c>
-      <c r="J26" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" ht="45" customHeight="1" spans="1:10">
+      <c r="J26" s="13">
+        <v>20</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" ht="45" customHeight="1" spans="1:11">
       <c r="A27" s="9">
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="D27" s="12">
         <v>9</v>
@@ -3371,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G27" s="13">
         <v>1</v>
@@ -3379,22 +3453,25 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" ht="45" customHeight="1" spans="1:10">
+      <c r="I27" s="15">
+        <v>1</v>
+      </c>
+      <c r="J27" s="15">
+        <v>15</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="45" customHeight="1" spans="1:11">
       <c r="A28" s="9">
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="D28" s="12">
         <v>9</v>
@@ -3403,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G28" s="13">
         <v>2</v>
@@ -3411,22 +3488,25 @@
       <c r="H28" s="13">
         <v>0</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" ht="45" customHeight="1" spans="1:10">
+      <c r="I28" s="13">
+        <v>16</v>
+      </c>
+      <c r="J28" s="13">
+        <v>30</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" ht="45" customHeight="1" spans="1:11">
       <c r="A29" s="9">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D29" s="12">
         <v>10</v>
@@ -3435,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G29" s="13">
         <v>1</v>
@@ -3443,22 +3523,25 @@
       <c r="H29" s="13">
         <v>0</v>
       </c>
-      <c r="I29" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" ht="45" customHeight="1" spans="1:10">
+      <c r="I29" s="15">
+        <v>1</v>
+      </c>
+      <c r="J29" s="15">
+        <v>15</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" ht="45" customHeight="1" spans="1:11">
       <c r="A30" s="9">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="D30" s="12">
         <v>11</v>
@@ -3467,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G30" s="13">
         <v>1</v>
@@ -3475,22 +3558,25 @@
       <c r="H30" s="13">
         <v>0</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" ht="45" customHeight="1" spans="1:10">
+      <c r="I30" s="15">
+        <v>1</v>
+      </c>
+      <c r="J30" s="15">
+        <v>15</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" ht="45" customHeight="1" spans="1:11">
       <c r="A31" s="9">
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="D31" s="12">
         <v>12</v>
@@ -3499,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G31" s="13">
         <v>1</v>
@@ -3507,22 +3593,25 @@
       <c r="H31" s="13">
         <v>0</v>
       </c>
-      <c r="I31" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" ht="45" customHeight="1" spans="1:10">
+      <c r="I31" s="15">
+        <v>1</v>
+      </c>
+      <c r="J31" s="15">
+        <v>15</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" ht="45" customHeight="1" spans="1:11">
       <c r="A32" s="9">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="D32" s="12">
         <v>13</v>
@@ -3531,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G32" s="13">
         <v>1</v>
@@ -3539,22 +3628,25 @@
       <c r="H32" s="13">
         <v>0</v>
       </c>
-      <c r="I32" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" ht="45" customHeight="1" spans="1:10">
+      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="J32" s="15">
+        <v>15</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" ht="45" customHeight="1" spans="1:11">
       <c r="A33" s="9">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="D33" s="12">
         <v>14</v>
@@ -3563,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G33" s="13">
         <v>1</v>
@@ -3571,22 +3663,25 @@
       <c r="H33" s="13">
         <v>0</v>
       </c>
-      <c r="I33" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" ht="45" customHeight="1" spans="1:10">
+      <c r="I33" s="15">
+        <v>1</v>
+      </c>
+      <c r="J33" s="15">
+        <v>15</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" ht="45" customHeight="1" spans="1:11">
       <c r="A34" s="9">
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="D34" s="12">
         <v>15</v>
@@ -3595,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G34" s="13">
         <v>1</v>
@@ -3603,10 +3698,13 @@
       <c r="H34" s="13">
         <v>0</v>
       </c>
-      <c r="I34" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J34" s="13" t="s">
+      <c r="I34" s="15">
+        <v>1</v>
+      </c>
+      <c r="J34" s="15">
+        <v>15</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>17</v>
       </c>
     </row>

--- a/excels/config/server/hero/server_skillful.xlsx
+++ b/excels/config/server/hero/server_skillful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="server_skill_exp" sheetId="3" r:id="rId1"/>
@@ -1578,31 +1578,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{32948870-B213-452A-9F70-654B870539D8}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{8620BD61-75E2-44E5-B017-61915ED77BAC}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{1D6A7665-95FE-4681-BFE1-705F8AF7587B}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{0D1A794B-E043-4FA9-BE36-4E0C156141AB}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{16DA9680-E265-4659-B1D9-9AB1293220A9}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{16485AA0-D603-445D-9314-D60D246A29BB}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9B0768A7-3026-4C93-A312-AFB5657F8779}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{22CE4490-CBD4-4A9A-8329-FD6A4E193898}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F110C9C1-EE3D-47C8-80B1-EC4FF6A545B5}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A071372C-8275-4322-89A3-5DD6CFAC0C9C}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1910,8 +1910,8 @@
   <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2364,10 +2364,10 @@
   <sheetPr/>
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <selection pane="topRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3744,8 +3744,8 @@
   <sheetPr/>
   <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3758,7 +3758,8 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24500</v>
+        <f>10000+A2*500</f>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3766,7 +3767,8 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25000</v>
+        <f t="shared" ref="B3:B12" si="0">10000+A3*1000</f>
+        <v>11000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3774,7 +3776,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25500</v>
+        <f t="shared" si="0"/>
+        <v>12000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3782,7 +3785,8 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26000</v>
+        <f t="shared" si="0"/>
+        <v>13000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3790,7 +3794,8 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26500</v>
+        <f t="shared" si="0"/>
+        <v>14000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3798,7 +3803,8 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27000</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3806,7 +3812,8 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27500</v>
+        <f t="shared" si="0"/>
+        <v>16000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3814,7 +3821,8 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28000</v>
+        <f t="shared" si="0"/>
+        <v>17000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3822,7 +3830,8 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28500</v>
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3830,7 +3839,8 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29000</v>
+        <f t="shared" si="0"/>
+        <v>19000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3838,7 +3848,8 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29500</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3846,7 +3857,8 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30000</v>
+        <f>10000+A13*2000</f>
+        <v>32000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3854,7 +3866,8 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30500</v>
+        <f t="shared" ref="B14:B22" si="1">10000+A14*2000</f>
+        <v>34000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3862,7 +3875,8 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31000</v>
+        <f t="shared" si="1"/>
+        <v>36000</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3870,7 +3884,8 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31500</v>
+        <f t="shared" si="1"/>
+        <v>38000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3878,7 +3893,8 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32000</v>
+        <f t="shared" si="1"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3886,7 +3902,8 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32500</v>
+        <f t="shared" si="1"/>
+        <v>42000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3894,7 +3911,8 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33000</v>
+        <f t="shared" si="1"/>
+        <v>44000</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3902,7 +3920,8 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33500</v>
+        <f t="shared" si="1"/>
+        <v>46000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3910,7 +3929,8 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34000</v>
+        <f t="shared" si="1"/>
+        <v>48000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3918,7 +3938,8 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34500</v>
+        <f t="shared" si="1"/>
+        <v>50000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3926,7 +3947,8 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35000</v>
+        <f>10000+A23*3000</f>
+        <v>73000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3934,7 +3956,8 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35500</v>
+        <f t="shared" ref="B24:B32" si="2">10000+A24*3000</f>
+        <v>76000</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3942,7 +3965,8 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>36000</v>
+        <f t="shared" si="2"/>
+        <v>79000</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3950,7 +3974,8 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>36500</v>
+        <f t="shared" si="2"/>
+        <v>82000</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3958,7 +3983,8 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>37000</v>
+        <f t="shared" si="2"/>
+        <v>85000</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3966,7 +3992,8 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>37500</v>
+        <f t="shared" si="2"/>
+        <v>88000</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3974,7 +4001,8 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>38000</v>
+        <f t="shared" si="2"/>
+        <v>91000</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3982,7 +4010,8 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>38500</v>
+        <f t="shared" si="2"/>
+        <v>94000</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3990,12 +4019,17 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>39500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <f t="shared" si="2"/>
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>30</v>
+      </c>
+      <c r="B32">
+        <f>10000+A32*3000</f>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/server/hero/server_skillful.xlsx
+++ b/excels/config/server/hero/server_skillful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="server_skill_exp" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="127">
   <si>
     <t>类型</t>
   </si>
@@ -166,6 +166,9 @@
     <t>说明</t>
   </si>
   <si>
+    <t>效果</t>
+  </si>
+  <si>
     <t>是否为技能</t>
   </si>
   <si>
@@ -229,25 +232,66 @@
     <t>召唤·进化</t>
   </si>
   <si>
-    <t>召唤型技能获得额外15%技能极速（可突破最大极速上限75%），召唤物造成伤害增加100%</t>
+    <r>
+      <t>召唤型技能获得额外15%CD，召唤物提高100%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
   </si>
   <si>
     <t>线圈增强</t>
   </si>
   <si>
-    <t>线圈伤害增加(1*LV)%，线圈强度增加(2*LV)%（宽度）</t>
+    <r>
+      <t>线圈型技能提高(1*LV)%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，线圈强度增加(2*LV)%（宽度）</t>
+    </r>
   </si>
   <si>
     <t>感应线圈</t>
   </si>
   <si>
-    <t>线圈伤害频率降低(5*LV)%</t>
+    <t>线圈伤害间隔减少(5*LV)%</t>
   </si>
   <si>
     <t>线圈·展开</t>
   </si>
   <si>
-    <t>线圈型技能范围扩大50%（离玩家距离），造成伤害增加100%</t>
+    <r>
+      <t>线圈型技能范围扩大50%（离玩家距离），提高100%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
   </si>
   <si>
     <t>快速环绕</t>
@@ -262,10 +306,24 @@
     <t>环绕数量增加(lv/5)</t>
   </si>
   <si>
+    <t>增加环绕物的数量，若有上限则提高对应上限。</t>
+  </si>
+  <si>
     <t>环绕·轨道</t>
   </si>
   <si>
-    <t>环绕型技能环绕范围扩大25%，伤害提升100%</t>
+    <r>
+      <t>环绕型技能环绕范围扩大25%，提高100%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
   </si>
   <si>
     <t>范围扩大</t>
@@ -277,13 +335,27 @@
     <t>多重范围</t>
   </si>
   <si>
-    <t>范围型技能范围释放时，有（LV*5）%概率再次释放一次</t>
+    <r>
+      <t>范围型技能提高（LV*5）%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害加成</t>
+    </r>
   </si>
   <si>
     <t>范围·破军</t>
   </si>
   <si>
-    <t>范围型技能伤害降低30%，但再次释放时伤害翻倍。</t>
+    <t>范围型技能使用时有10%概率再次释放</t>
+  </si>
+  <si>
+    <t>多重施法，触发时头顶出现X2，多重施法间隔默认0.2秒，不可套娃。</t>
   </si>
   <si>
     <t>弹射增益</t>
@@ -301,7 +373,26 @@
     <t>弹射·飞起</t>
   </si>
   <si>
-    <t>弹射型技能技能对主目标之后的后续每个目标伤害递增10%</t>
+    <r>
+      <t>弹射型技能技能对主目标之后的后续每个目标伤害递增10%（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>弹道提速</t>
@@ -313,13 +404,32 @@
     <t>多重弹道</t>
   </si>
   <si>
-    <t>弹道型技能弹道数量增加(LV/3),并且</t>
+    <t>弹道型技能弹道数量增加(LV/3)</t>
   </si>
   <si>
     <t>弹道·超越</t>
   </si>
   <si>
-    <t>弹道型技能伤害提高50%，飞行距离增加50%</t>
+    <r>
+      <t>弹道型技能提高50%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，飞行距离增加50%</t>
+    </r>
   </si>
   <si>
     <t>多重目标</t>
@@ -331,13 +441,24 @@
     <t>骰子目标</t>
   </si>
   <si>
-    <t>目标型技能目标数量增加1</t>
+    <t>目标型技能目标数量增加(LV/3)</t>
   </si>
   <si>
     <t>目标·命运</t>
   </si>
   <si>
-    <t>目标型技能根据释放时的额外目标数量，提升技能伤害55%*额外目标数</t>
+    <r>
+      <t>目标型技能释放时，提升技能（25%*最大额外目标数）的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
   </si>
   <si>
     <t>持续延长</t>
@@ -355,7 +476,18 @@
     <t>持续·群效</t>
   </si>
   <si>
-    <t>持续型技能额外施加一个debuff，使承受单位受到伤害加深20%</t>
+    <r>
+      <t>持续型技能提高150%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
   </si>
   <si>
     <t>法球触率</t>
@@ -397,7 +529,17 @@
     <t>技能伤害</t>
   </si>
   <si>
-    <t>技能伤害提高(LV*10)%</t>
+    <r>
+      <t>技能强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高(LV*10)%</t>
+    </r>
   </si>
   <si>
     <t>蓝耗降低</t>
@@ -416,7 +558,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +574,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -580,7 +728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +738,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,55 +1177,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,74 +1237,77 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,6 +1344,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,6 +1355,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1578,31 +1741,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{8620BD61-75E2-44E5-B017-61915ED77BAC}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{6EFF4DC1-94CA-4567-9451-D07ECA4DA4B6}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{0D1A794B-E043-4FA9-BE36-4E0C156141AB}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{A477ABA0-922D-4CF4-8EE0-6AE800A69CE5}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{16485AA0-D603-445D-9314-D60D246A29BB}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{18460450-3146-4176-A0D9-E3B411B6DDD1}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{22CE4490-CBD4-4A9A-8329-FD6A4E193898}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{156F5816-C4B3-4D17-A99E-AE5EB2E9312D}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A071372C-8275-4322-89A3-5DD6CFAC0C9C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4E9D4877-367A-46CB-9543-DC4DDA17B889}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1919,7 +2082,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="32.125" customWidth="1"/>
-    <col min="5" max="5" width="32.125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="15" customWidth="1"/>
     <col min="6" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1936,7 +2099,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1974,7 +2137,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2021,13 +2184,13 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="15">
         <v>30</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2044,13 +2207,13 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <v>30</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2067,13 +2230,13 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>30</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2090,13 +2253,13 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="15">
         <v>30</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2113,13 +2276,13 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <v>30</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2136,13 +2299,13 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <v>30</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2159,13 +2322,13 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <v>30</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2182,13 +2345,13 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <v>30</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2205,13 +2368,13 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <v>30</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2228,13 +2391,13 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="15">
         <v>30</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2251,13 +2414,13 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>30</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2274,13 +2437,13 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="15">
         <v>30</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2297,13 +2460,13 @@
       <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="15">
         <v>30</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2320,13 +2483,13 @@
       <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="15">
         <v>30</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2343,13 +2506,13 @@
       <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <v>30</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2362,12 +2525,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J3" sqref="J3"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2375,38 +2538,39 @@
     <col min="1" max="1" width="8.34166666666667" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="55.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="13.3416666666667" customWidth="1"/>
-    <col min="6" max="8" width="13.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
-    <col min="10" max="10" width="22.25" customWidth="1"/>
-    <col min="11" max="11" width="26.675" customWidth="1"/>
-    <col min="12" max="12" width="17.175" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7" style="2" customWidth="1"/>
-    <col min="16" max="18" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.34166666666667" style="2" customWidth="1"/>
-    <col min="20" max="20" width="17.3416666666667" style="2" customWidth="1"/>
-    <col min="21" max="23" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="24" max="24" width="6.55" style="2" customWidth="1"/>
+    <col min="4" max="4" width="68.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="13.3416666666667" customWidth="1"/>
+    <col min="7" max="9" width="13.5083333333333" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="22.25" customWidth="1"/>
+    <col min="12" max="12" width="26.675" customWidth="1"/>
+    <col min="13" max="13" width="17.175" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7" style="2" customWidth="1"/>
+    <col min="17" max="19" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.34166666666667" style="2" customWidth="1"/>
+    <col min="21" max="21" width="17.3416666666667" style="2" customWidth="1"/>
+    <col min="22" max="24" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6.55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:24">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>45</v>
@@ -2424,58 +2588,59 @@
         <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4">
-        <v>0</v>
-      </c>
       <c r="M1" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1" s="4">
+        <v>1</v>
+      </c>
+      <c r="O1" s="4">
         <v>2</v>
       </c>
-      <c r="O1" s="4">
+      <c r="P1" s="4">
         <v>3</v>
       </c>
-      <c r="P1" s="4">
+      <c r="Q1" s="4">
         <v>4</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="R1" s="4">
         <v>5</v>
       </c>
-      <c r="R1" s="4">
+      <c r="S1" s="4">
         <v>6</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="4">
-        <v>0</v>
-      </c>
       <c r="U1" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1" s="4">
+        <v>1</v>
+      </c>
+      <c r="W1" s="4">
         <v>2</v>
       </c>
-      <c r="W1" s="4">
+      <c r="X1" s="4">
         <v>3</v>
       </c>
-      <c r="X1" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:24">
+      <c r="Y1" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:25">
       <c r="A2" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2491,182 +2656,187 @@
         <v>57</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7">
-        <v>1</v>
-      </c>
       <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
         <v>2</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>3</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q2" s="7">
         <v>4</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="R2" s="7">
         <v>5</v>
       </c>
-      <c r="R2" s="7">
+      <c r="S2" s="7">
         <v>6</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="7">
-        <v>1</v>
+      <c r="U2" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="V2" s="7">
+        <v>1</v>
+      </c>
+      <c r="W2" s="7">
         <v>2</v>
       </c>
-      <c r="W2" s="7">
+      <c r="X2" s="7">
         <v>3</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Y2" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:24">
+    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D3" s="12"/>
       <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>1</v>
-      </c>
-      <c r="J3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="18">
         <v>15</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="18"/>
-    </row>
-    <row r="4" ht="45" customHeight="1" spans="1:24">
+      <c r="L3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="21"/>
+    </row>
+    <row r="4" ht="45" customHeight="1" spans="1:25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="H4" s="14">
         <v>2</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
         <v>16</v>
       </c>
-      <c r="J4" s="13">
+      <c r="K4" s="14">
         <v>30</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="18"/>
-    </row>
-    <row r="5" ht="45" customHeight="1" spans="1:24">
+      <c r="L4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="21"/>
+    </row>
+    <row r="5" ht="45" customHeight="1" spans="1:25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D5" s="12"/>
       <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="14">
         <v>3</v>
       </c>
-      <c r="H5" s="13">
-        <v>1</v>
-      </c>
-      <c r="I5" s="13">
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14">
         <v>20</v>
       </c>
-      <c r="J5" s="13">
+      <c r="K5" s="14">
         <v>20</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5"/>
+      <c r="L5" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -2679,1037 +2849,1071 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
-    </row>
-    <row r="6" ht="45" customHeight="1" spans="1:24">
+      <c r="Y5"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="14">
+        <v>68</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>1</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
         <v>15</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="18"/>
-    </row>
-    <row r="7" ht="45" customHeight="1" spans="1:11">
+      <c r="L6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="21"/>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:12">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="12">
+        <v>70</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="14">
         <v>2</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <v>16</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="14">
         <v>30</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="45" customHeight="1" spans="1:11">
+      <c r="L7" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:12">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="12">
+        <v>72</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13">
         <v>2</v>
       </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="14">
         <v>3</v>
       </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
         <v>20</v>
       </c>
-      <c r="J8" s="13">
+      <c r="K8" s="14">
         <v>20</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" ht="45" customHeight="1" spans="1:11">
+      <c r="L8" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1" spans="1:12">
       <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="12">
+        <v>74</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
         <v>3</v>
       </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18">
         <v>15</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="45" customHeight="1" spans="1:11">
+      <c r="L9" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:12">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="12">
+      <c r="C10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="13">
         <v>3</v>
       </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="14">
         <v>2</v>
       </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
         <v>16</v>
       </c>
-      <c r="J10" s="13">
+      <c r="K10" s="14">
         <v>30</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="45" customHeight="1" spans="1:11">
+      <c r="L10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:12">
       <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="12">
+        <v>79</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="14">
         <v>3</v>
       </c>
-      <c r="H11" s="13">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
         <v>20</v>
       </c>
-      <c r="J11" s="13">
+      <c r="K11" s="14">
         <v>20</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="45" customHeight="1" spans="1:11">
+      <c r="L11" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1" spans="1:12">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="12">
+        <v>81</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13">
         <v>4</v>
       </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
         <v>15</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="45" customHeight="1" spans="1:11">
+      <c r="L12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="45" customHeight="1" spans="1:12">
       <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="12">
+        <v>82</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13">
         <v>4</v>
       </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="14">
         <v>2</v>
       </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
         <v>16</v>
       </c>
-      <c r="J13" s="13">
+      <c r="K13" s="14">
         <v>30</v>
       </c>
-      <c r="K13" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" ht="45" customHeight="1" spans="1:11">
+      <c r="L13" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="45" customHeight="1" spans="1:12">
       <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="12">
+        <v>84</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="13">
         <v>4</v>
       </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="14">
         <v>3</v>
       </c>
-      <c r="H14" s="13">
-        <v>1</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
         <v>20</v>
       </c>
-      <c r="J14" s="13">
+      <c r="K14" s="14">
         <v>20</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="45" customHeight="1" spans="1:11">
+      <c r="L14" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="45" customHeight="1" spans="1:12">
       <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="12">
+        <v>88</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13">
         <v>5</v>
       </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15">
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+      <c r="K15" s="18">
         <v>15</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" ht="45" customHeight="1" spans="1:11">
+      <c r="L15" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="45" customHeight="1" spans="1:12">
       <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="12">
+        <v>90</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13">
         <v>5</v>
       </c>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="14">
         <v>2</v>
       </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
         <v>16</v>
       </c>
-      <c r="J16" s="13">
+      <c r="K16" s="14">
         <v>30</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" ht="45" customHeight="1" spans="1:11">
+      <c r="L16" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1" spans="1:12">
       <c r="A17" s="9">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="12">
+        <v>92</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13">
         <v>5</v>
       </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="14">
         <v>3</v>
       </c>
-      <c r="H17" s="13">
-        <v>1</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14">
         <v>20</v>
       </c>
-      <c r="J17" s="13">
+      <c r="K17" s="14">
         <v>20</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="45" customHeight="1" spans="1:11">
+      <c r="L17" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1" spans="1:12">
       <c r="A18" s="9">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="12">
+        <v>94</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13">
         <v>6</v>
       </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
-        <v>1</v>
-      </c>
-      <c r="J18" s="15">
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="18">
         <v>15</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" ht="45" customHeight="1" spans="1:11">
+      <c r="L18" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1" spans="1:12">
       <c r="A19" s="9">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="12">
+        <v>96</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13">
         <v>6</v>
       </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="14">
         <v>2</v>
       </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="14">
         <v>16</v>
       </c>
-      <c r="J19" s="13">
+      <c r="K19" s="14">
         <v>30</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="45" customHeight="1" spans="1:11">
+      <c r="L19" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="45" customHeight="1" spans="1:12">
       <c r="A20" s="9">
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="12">
+        <v>98</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13">
         <v>6</v>
       </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="14">
         <v>3</v>
       </c>
-      <c r="H20" s="13">
-        <v>1</v>
-      </c>
-      <c r="I20" s="13">
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
         <v>20</v>
       </c>
-      <c r="J20" s="13">
+      <c r="K20" s="14">
         <v>20</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" ht="45" customHeight="1" spans="1:11">
+      <c r="L20" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="45" customHeight="1" spans="1:12">
       <c r="A21" s="9">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="12">
+        <v>100</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13">
         <v>7</v>
       </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15">
-        <v>1</v>
-      </c>
-      <c r="J21" s="15">
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
         <v>15</v>
       </c>
-      <c r="K21" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" ht="45" customHeight="1" spans="1:11">
+      <c r="L21" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" ht="45" customHeight="1" spans="1:12">
       <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="12">
+        <v>102</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13">
         <v>7</v>
       </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="14">
         <v>2</v>
       </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="13">
+      <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
         <v>16</v>
       </c>
-      <c r="J22" s="13">
+      <c r="K22" s="14">
         <v>30</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" ht="45" customHeight="1" spans="1:11">
+      <c r="L22" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" ht="45" customHeight="1" spans="1:12">
       <c r="A23" s="9">
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="12">
+        <v>103</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13">
         <v>7</v>
       </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="13">
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="14">
         <v>3</v>
       </c>
-      <c r="H23" s="13">
-        <v>1</v>
-      </c>
-      <c r="I23" s="13">
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14">
         <v>20</v>
       </c>
-      <c r="J23" s="13">
+      <c r="K23" s="14">
         <v>20</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" ht="45" customHeight="1" spans="1:11">
+      <c r="L23" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" ht="45" customHeight="1" spans="1:12">
       <c r="A24" s="9">
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="12">
+        <v>106</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13">
         <v>8</v>
       </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="15">
-        <v>1</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="14">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1</v>
+      </c>
+      <c r="K24" s="18">
         <v>15</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" ht="45" customHeight="1" spans="1:11">
+      <c r="L24" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" ht="45" customHeight="1" spans="1:12">
       <c r="A25" s="9">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="12">
+        <v>108</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13">
         <v>8</v>
       </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="13">
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="14">
         <v>2</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
+      <c r="I25" s="14">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
         <v>16</v>
       </c>
-      <c r="J25" s="13">
+      <c r="K25" s="14">
         <v>30</v>
       </c>
-      <c r="K25" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" ht="45" customHeight="1" spans="1:11">
+      <c r="L25" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" ht="45" customHeight="1" spans="1:12">
       <c r="A26" s="9">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="12">
+        <v>109</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13">
         <v>8</v>
       </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="13">
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="14">
         <v>3</v>
       </c>
-      <c r="H26" s="13">
-        <v>1</v>
-      </c>
-      <c r="I26" s="13">
+      <c r="I26" s="14">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14">
         <v>20</v>
       </c>
-      <c r="J26" s="13">
+      <c r="K26" s="14">
         <v>20</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" ht="45" customHeight="1" spans="1:11">
+      <c r="L26" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" ht="45" customHeight="1" spans="1:12">
       <c r="A27" s="9">
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="12">
+        <v>112</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13">
         <v>9</v>
       </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="13">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="15">
-        <v>1</v>
-      </c>
-      <c r="J27" s="15">
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="14">
+        <v>1</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1</v>
+      </c>
+      <c r="K27" s="18">
         <v>15</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" ht="45" customHeight="1" spans="1:11">
+      <c r="L27" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="45" customHeight="1" spans="1:12">
       <c r="A28" s="9">
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="12">
+        <v>114</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13">
         <v>9</v>
       </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="13">
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="14">
         <v>2</v>
       </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13">
+      <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
         <v>16</v>
       </c>
-      <c r="J28" s="13">
+      <c r="K28" s="14">
         <v>30</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" ht="45" customHeight="1" spans="1:11">
+      <c r="L28" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" ht="45" customHeight="1" spans="1:12">
       <c r="A29" s="9">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="12">
+        <v>116</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13">
         <v>10</v>
       </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="15">
-        <v>1</v>
-      </c>
-      <c r="J29" s="15">
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="14">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1</v>
+      </c>
+      <c r="K29" s="18">
         <v>15</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" ht="45" customHeight="1" spans="1:11">
+      <c r="L29" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" ht="45" customHeight="1" spans="1:12">
       <c r="A30" s="9">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="12">
+        <v>118</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13">
         <v>11</v>
       </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="13">
-        <v>1</v>
-      </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="15">
-        <v>1</v>
-      </c>
-      <c r="J30" s="15">
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="14">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1</v>
+      </c>
+      <c r="K30" s="18">
         <v>15</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" ht="45" customHeight="1" spans="1:11">
+      <c r="L30" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" ht="45" customHeight="1" spans="1:12">
       <c r="A31" s="9">
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="12">
+        <v>120</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13">
         <v>12</v>
       </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="13">
-        <v>1</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="15">
-        <v>1</v>
-      </c>
-      <c r="J31" s="15">
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="14">
+        <v>1</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1</v>
+      </c>
+      <c r="K31" s="18">
         <v>15</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" ht="45" customHeight="1" spans="1:11">
+      <c r="L31" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" ht="45" customHeight="1" spans="1:12">
       <c r="A32" s="9">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="12">
+        <v>122</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13">
         <v>13</v>
       </c>
-      <c r="E32" s="13">
-        <v>0</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="13">
-        <v>1</v>
-      </c>
-      <c r="H32" s="13">
-        <v>0</v>
-      </c>
-      <c r="I32" s="15">
-        <v>1</v>
-      </c>
-      <c r="J32" s="15">
+      <c r="F32" s="14">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="14">
+        <v>1</v>
+      </c>
+      <c r="I32" s="14">
+        <v>0</v>
+      </c>
+      <c r="J32" s="18">
+        <v>1</v>
+      </c>
+      <c r="K32" s="18">
         <v>15</v>
       </c>
-      <c r="K32" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" ht="45" customHeight="1" spans="1:11">
+      <c r="L32" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" ht="45" customHeight="1" spans="1:12">
       <c r="A33" s="9">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="12">
+        <v>123</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13">
         <v>14</v>
       </c>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="13">
-        <v>1</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0</v>
-      </c>
-      <c r="I33" s="15">
-        <v>1</v>
-      </c>
-      <c r="J33" s="15">
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="14">
+        <v>1</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <v>1</v>
+      </c>
+      <c r="K33" s="18">
         <v>15</v>
       </c>
-      <c r="K33" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" ht="45" customHeight="1" spans="1:11">
+      <c r="L33" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" ht="45" customHeight="1" spans="1:12">
       <c r="A34" s="9">
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="12">
+        <v>126</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13">
         <v>15</v>
       </c>
-      <c r="E34" s="13">
-        <v>0</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="13">
-        <v>1</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0</v>
-      </c>
-      <c r="I34" s="15">
-        <v>1</v>
-      </c>
-      <c r="J34" s="15">
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1</v>
+      </c>
+      <c r="I34" s="14">
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
+        <v>1</v>
+      </c>
+      <c r="K34" s="18">
         <v>15</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="L34" s="14" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E34">
+  <conditionalFormatting sqref="F3:F34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3721,7 +3925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E2 E35:E1048576">
+  <conditionalFormatting sqref="F1:F2 F35:F1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3744,8 +3948,8 @@
   <sheetPr/>
   <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -4028,7 +4232,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f>10000+A32*3000</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
     </row>

--- a/excels/config/server/hero/server_skillful.xlsx
+++ b/excels/config/server/hero/server_skillful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="server_skill_exp" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="166">
   <si>
     <t>类型</t>
   </si>
@@ -223,16 +223,27 @@
     <t>null</t>
   </si>
   <si>
+    <t>skv_summon_duration 0.5</t>
+  </si>
+  <si>
     <t>强力召唤</t>
   </si>
   <si>
     <t>召唤物强度（攻击力、生命值、攻击速度）增强(LV*10)%</t>
   </si>
   <si>
+    <t>skv_summon_strength 10</t>
+  </si>
+  <si>
     <t>召唤·进化</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>召唤型技能获得额外15%CD，召唤物提高100%的</t>
     </r>
     <r>
@@ -246,10 +257,21 @@
     </r>
   </si>
   <si>
+    <t>skv_summon_cooldown 15</t>
+  </si>
+  <si>
+    <t>skv_summon_d_final 100</t>
+  </si>
+  <si>
     <t>线圈增强</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>线圈型技能提高(1*LV)%的</t>
     </r>
     <r>
@@ -271,16 +293,30 @@
     </r>
   </si>
   <si>
+    <t>skv_ring_d_final 1</t>
+  </si>
+  <si>
+    <t>skv_ring_width 2</t>
+  </si>
+  <si>
     <t>感应线圈</t>
   </si>
   <si>
     <t>线圈伤害间隔减少(5*LV)%</t>
   </si>
   <si>
+    <t>skv_ring_interval 5</t>
+  </si>
+  <si>
     <t>线圈·展开</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>线圈型技能范围扩大50%（离玩家距离），提高100%的</t>
     </r>
     <r>
@@ -294,12 +330,21 @@
     </r>
   </si>
   <si>
+    <t>skv_ring_range 50</t>
+  </si>
+  <si>
+    <t>skv_ring_d_final 100</t>
+  </si>
+  <si>
     <t>快速环绕</t>
   </si>
   <si>
     <t>环绕速度增加(4*lv)%</t>
   </si>
   <si>
+    <t>skv_surround_speed 4</t>
+  </si>
+  <si>
     <t>多重环绕</t>
   </si>
   <si>
@@ -309,10 +354,18 @@
     <t>增加环绕物的数量，若有上限则提高对应上限。</t>
   </si>
   <si>
+    <t>skv_surround_count 0.2</t>
+  </si>
+  <si>
     <t>环绕·轨道</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>环绕型技能环绕范围扩大25%，提高100%的</t>
     </r>
     <r>
@@ -326,16 +379,30 @@
     </r>
   </si>
   <si>
+    <t>skv_surround_distance 25</t>
+  </si>
+  <si>
+    <t>skv_surround_d_final 100</t>
+  </si>
+  <si>
     <t>范围扩大</t>
   </si>
   <si>
     <t>范围型技能范围扩大（5*LV）%</t>
   </si>
   <si>
+    <t>skv_aoe_radius 5</t>
+  </si>
+  <si>
     <t>多重范围</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>范围型技能提高（LV*5）%的</t>
     </r>
     <r>
@@ -349,6 +416,9 @@
     </r>
   </si>
   <si>
+    <t>skv_aoe_d_bonus 5</t>
+  </si>
+  <si>
     <t>范围·破军</t>
   </si>
   <si>
@@ -358,22 +428,36 @@
     <t>多重施法，触发时头顶出现X2，多重施法间隔默认0.2秒，不可套娃。</t>
   </si>
   <si>
+    <t>skv_aoe_chance 10</t>
+  </si>
+  <si>
     <t>弹射增益</t>
   </si>
   <si>
     <t>弹射型技能弹射【衰减效率】减少(5*LV)%</t>
   </si>
   <si>
+    <t>skv_bounce_reduction 5</t>
+  </si>
+  <si>
     <t>额外弹射</t>
   </si>
   <si>
     <t>弹射型技能弹射数量增加(LV/3)</t>
   </si>
   <si>
+    <t>skv_bounce_count 0.334</t>
+  </si>
+  <si>
     <t>弹射·飞起</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>弹射型技能技能对主目标之后的后续每个目标伤害递增10%（</t>
     </r>
     <r>
@@ -395,22 +479,36 @@
     </r>
   </si>
   <si>
+    <t>skv_bounce_increase 10</t>
+  </si>
+  <si>
     <t>弹道提速</t>
   </si>
   <si>
     <t>弹道型技能弹道速度提升（3*LV）%</t>
   </si>
   <si>
+    <t>skv_missile_speed 3</t>
+  </si>
+  <si>
     <t>多重弹道</t>
   </si>
   <si>
     <t>弹道型技能弹道数量增加(LV/3)</t>
   </si>
   <si>
+    <t>skv_missile_count 0.334</t>
+  </si>
+  <si>
     <t>弹道·超越</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>弹道型技能提高50%的</t>
     </r>
     <r>
@@ -432,22 +530,45 @@
     </r>
   </si>
   <si>
+    <t>skv_missile_d_final 50</t>
+  </si>
+  <si>
+    <t>skv_missile_distance 50</t>
+  </si>
+  <si>
     <t>多重目标</t>
   </si>
   <si>
     <t>目标型技能释放时，(LV*2)%概率额外增加1个目标，(LV*0.8)%概率概率增加2个目标，(LV*0.4)%概率额外增加3个目标</t>
   </si>
   <si>
+    <t>skv_targeting_multiple1 2</t>
+  </si>
+  <si>
+    <t>skv_targeting_multiple2 0.8</t>
+  </si>
+  <si>
+    <t>skv_targeting_multiple3 0.4</t>
+  </si>
+  <si>
     <t>骰子目标</t>
   </si>
   <si>
     <t>目标型技能目标数量增加(LV/3)</t>
   </si>
   <si>
+    <t>skv_targeting_count 0.334</t>
+  </si>
+  <si>
     <t>目标·命运</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>目标型技能释放时，提升技能（25%*最大额外目标数）的</t>
     </r>
     <r>
@@ -461,22 +582,36 @@
     </r>
   </si>
   <si>
+    <t>skv_targeting_d_final 25</t>
+  </si>
+  <si>
     <t>持续延长</t>
   </si>
   <si>
     <t>持续性技能持续时间延长(LV*5)%</t>
   </si>
   <si>
+    <t>skv_dot_duration 5</t>
+  </si>
+  <si>
     <t>持续增益</t>
   </si>
   <si>
     <t>持续性技能伤害间隔效率增加(lv*5)%</t>
   </si>
   <si>
+    <t>skv_dot_interval 5</t>
+  </si>
+  <si>
     <t>持续·群效</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>持续型技能提高150%</t>
     </r>
     <r>
@@ -490,46 +625,73 @@
     </r>
   </si>
   <si>
+    <t>skv_dot_d_final 150</t>
+  </si>
+  <si>
     <t>法球触率</t>
   </si>
   <si>
     <t>法球型技能触发概率增加(LV*4)%</t>
   </si>
   <si>
+    <t>skv_orb_chance 4</t>
+  </si>
+  <si>
     <t>法球效率</t>
   </si>
   <si>
     <t>法球型技能触发所需攻击次数减(lv/3)</t>
   </si>
   <si>
+    <t>skv_orb_required 0.334</t>
+  </si>
+  <si>
     <t>理财收益</t>
   </si>
   <si>
     <t>理财型技能收益增加(LV*5)%</t>
   </si>
   <si>
+    <t>skv_resource_income 5</t>
+  </si>
+  <si>
     <t>成长快乐</t>
   </si>
   <si>
     <t>成长型技能加成提高(lv*5)%</t>
   </si>
   <si>
+    <t>skv_growth_bonus 5</t>
+  </si>
+  <si>
     <t>增益快感</t>
   </si>
   <si>
     <t>增益型技能效率提高(LV*5)%</t>
   </si>
   <si>
+    <t>skv_buff_increase 5</t>
+  </si>
+  <si>
     <t>技能极速</t>
   </si>
   <si>
     <t>技能极速+(lv*5)</t>
   </si>
   <si>
+    <t>skv_all_haste 5</t>
+  </si>
+  <si>
     <t>技能伤害</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>技能强度</t>
     </r>
     <r>
@@ -542,10 +704,16 @@
     </r>
   </si>
   <si>
+    <t>skv_all_ability_power 10</t>
+  </si>
+  <si>
     <t>蓝耗降低</t>
   </si>
   <si>
     <t>技能蓝耗降低(lv*5)%</t>
+  </si>
+  <si>
+    <t>skv_all_manacost -5</t>
   </si>
 </sst>
 </file>
@@ -728,7 +896,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,12 +1092,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,11 +1465,11 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1343,9 +1505,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1741,31 +1900,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{6EFF4DC1-94CA-4567-9451-D07ECA4DA4B6}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{A1CDD84E-F5A5-43BE-AC96-2D7C29B3E9E8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{A477ABA0-922D-4CF4-8EE0-6AE800A69CE5}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{B850067D-D661-428F-8471-1A6F13291609}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{18460450-3146-4176-A0D9-E3B411B6DDD1}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{D143B522-BAA2-4823-AE2B-56050709E6E7}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{156F5816-C4B3-4D17-A99E-AE5EB2E9312D}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E45E3FEE-7C7C-4CFE-8B65-9360CC43E1D3}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4E9D4877-367A-46CB-9543-DC4DDA17B889}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B312E139-CEBF-447F-B393-E5E2AD15AF69}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2082,7 +2241,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="32.125" customWidth="1"/>
-    <col min="5" max="5" width="32.125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="14" customWidth="1"/>
     <col min="6" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2099,7 +2258,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -2137,7 +2296,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2184,13 +2343,13 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>30</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2207,13 +2366,13 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>30</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2230,13 +2389,13 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>30</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2253,13 +2412,13 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>30</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2276,13 +2435,13 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>30</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="F7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2299,13 +2458,13 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>30</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2322,13 +2481,13 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>30</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2345,13 +2504,13 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>30</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2368,13 +2527,13 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>30</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2391,13 +2550,13 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>30</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2414,13 +2573,13 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>30</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2437,13 +2596,13 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>30</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2460,13 +2619,13 @@
       <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>30</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2483,13 +2642,13 @@
       <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>30</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="F16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2506,13 +2665,13 @@
       <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>30</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="F17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2527,10 +2686,10 @@
   <sheetPr/>
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2546,8 +2705,8 @@
     <col min="11" max="11" width="22.25" customWidth="1"/>
     <col min="12" max="12" width="26.675" customWidth="1"/>
     <col min="13" max="13" width="17.175" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="29" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.375" style="2" customWidth="1"/>
     <col min="16" max="16" width="7" style="2" customWidth="1"/>
     <col min="17" max="19" width="6.24166666666667" style="2" customWidth="1"/>
     <col min="20" max="20" width="8.34166666666667" style="2" customWidth="1"/>
@@ -2629,7 +2788,7 @@
       <c r="X1" s="4">
         <v>3</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2700,7 +2859,7 @@
       <c r="X2" s="7">
         <v>3</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2714,132 +2873,140 @@
       <c r="C3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="14">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
-        <v>1</v>
-      </c>
-      <c r="K3" s="18">
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3" s="17">
         <v>15</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="21"/>
+      <c r="L3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="20"/>
     </row>
     <row r="4" ht="45" customHeight="1" spans="1:25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>16</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>30</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="21"/>
+      <c r="L4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="20"/>
     </row>
     <row r="5" ht="45" customHeight="1" spans="1:25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>3</v>
       </c>
-      <c r="I5" s="14">
-        <v>1</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
         <v>20</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>20</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -2856,1060 +3023,1163 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="15">
+        <v>72</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="14">
         <v>2</v>
       </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="14">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
-        <v>1</v>
-      </c>
-      <c r="K6" s="18">
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
         <v>15</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="21"/>
-    </row>
-    <row r="7" ht="45" customHeight="1" spans="1:12">
+      <c r="L6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="20"/>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:14">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>2</v>
       </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>16</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>30</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="45" customHeight="1" spans="1:12">
+      <c r="L7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13">
+        <v>79</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12">
         <v>2</v>
       </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>3</v>
       </c>
-      <c r="I8" s="14">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
         <v>20</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>20</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" ht="45" customHeight="1" spans="1:12">
+      <c r="L8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1" spans="1:14">
       <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13">
+        <v>83</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12">
         <v>3</v>
       </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="14">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18">
-        <v>1</v>
-      </c>
-      <c r="K9" s="18">
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17">
         <v>15</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="45" customHeight="1" spans="1:12">
+      <c r="L9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:14">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="13">
+        <v>85</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="12">
         <v>3</v>
       </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>2</v>
       </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
         <v>16</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>30</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="45" customHeight="1" spans="1:12">
+      <c r="L10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:15">
       <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13">
+        <v>90</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>3</v>
       </c>
-      <c r="I11" s="14">
-        <v>1</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
         <v>20</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>20</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="45" customHeight="1" spans="1:12">
+      <c r="L11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1" spans="1:14">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13">
+        <v>94</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12">
         <v>4</v>
       </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="14">
-        <v>1</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
-        <v>1</v>
-      </c>
-      <c r="K12" s="18">
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1</v>
+      </c>
+      <c r="K12" s="17">
         <v>15</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="45" customHeight="1" spans="1:12">
+      <c r="L12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" ht="45" customHeight="1" spans="1:14">
       <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13">
+        <v>96</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12">
         <v>4</v>
       </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>2</v>
       </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
         <v>16</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>30</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" ht="45" customHeight="1" spans="1:12">
+      <c r="L13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" ht="45" customHeight="1" spans="1:14">
       <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="13">
+        <v>99</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="12">
         <v>4</v>
       </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>3</v>
       </c>
-      <c r="I14" s="14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13">
         <v>20</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>20</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="45" customHeight="1" spans="1:12">
+      <c r="L14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" ht="45" customHeight="1" spans="1:14">
       <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13">
+        <v>104</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12">
         <v>5</v>
       </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="14">
-        <v>1</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18">
-        <v>1</v>
-      </c>
-      <c r="K15" s="18">
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1</v>
+      </c>
+      <c r="K15" s="17">
         <v>15</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" ht="45" customHeight="1" spans="1:12">
+      <c r="L15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" ht="45" customHeight="1" spans="1:14">
       <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13">
+        <v>107</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12">
         <v>5</v>
       </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>2</v>
       </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
         <v>16</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>30</v>
       </c>
-      <c r="L16" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" ht="45" customHeight="1" spans="1:12">
+      <c r="L16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1" spans="1:14">
       <c r="A17" s="9">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13">
+        <v>110</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12">
         <v>5</v>
       </c>
-      <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>3</v>
       </c>
-      <c r="I17" s="14">
-        <v>1</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13">
         <v>20</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>20</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="45" customHeight="1" spans="1:12">
+      <c r="L17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1" spans="1:14">
       <c r="A18" s="9">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13">
+        <v>113</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12">
         <v>6</v>
       </c>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="14">
-        <v>1</v>
-      </c>
-      <c r="I18" s="14">
-        <v>0</v>
-      </c>
-      <c r="J18" s="18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="18">
+      <c r="H18" s="13">
+        <v>1</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>1</v>
+      </c>
+      <c r="K18" s="17">
         <v>15</v>
       </c>
-      <c r="L18" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" ht="45" customHeight="1" spans="1:12">
+      <c r="L18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1" spans="1:14">
       <c r="A19" s="9">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13">
+        <v>116</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12">
         <v>6</v>
       </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>2</v>
       </c>
-      <c r="I19" s="14">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
         <v>16</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>30</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="45" customHeight="1" spans="1:12">
+      <c r="L19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" ht="45" customHeight="1" spans="1:15">
       <c r="A20" s="9">
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13">
+        <v>119</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12">
         <v>6</v>
       </c>
-      <c r="F20" s="14">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>3</v>
       </c>
-      <c r="I20" s="14">
-        <v>1</v>
-      </c>
-      <c r="J20" s="14">
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
         <v>20</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>20</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" ht="45" customHeight="1" spans="1:12">
+      <c r="L20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" ht="45" customHeight="1" spans="1:16">
       <c r="A21" s="9">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13">
+        <v>123</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12">
         <v>7</v>
       </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="14">
-        <v>1</v>
-      </c>
-      <c r="I21" s="14">
-        <v>0</v>
-      </c>
-      <c r="J21" s="18">
-        <v>1</v>
-      </c>
-      <c r="K21" s="18">
+      <c r="H21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>1</v>
+      </c>
+      <c r="K21" s="17">
         <v>15</v>
       </c>
-      <c r="L21" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" ht="45" customHeight="1" spans="1:12">
+      <c r="L21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" ht="45" customHeight="1" spans="1:14">
       <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13">
+        <v>128</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12">
         <v>7</v>
       </c>
-      <c r="F22" s="14">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>2</v>
       </c>
-      <c r="I22" s="14">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14">
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
         <v>16</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>30</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" ht="45" customHeight="1" spans="1:12">
+      <c r="L22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" ht="45" customHeight="1" spans="1:14">
       <c r="A23" s="9">
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13">
+        <v>130</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="12">
         <v>7</v>
       </c>
-      <c r="F23" s="14">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14" t="s">
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>3</v>
       </c>
-      <c r="I23" s="14">
-        <v>1</v>
-      </c>
-      <c r="J23" s="14">
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13">
         <v>20</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>20</v>
       </c>
-      <c r="L23" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" ht="45" customHeight="1" spans="1:12">
+      <c r="L23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" ht="45" customHeight="1" spans="1:14">
       <c r="A24" s="9">
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13">
+        <v>134</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12">
         <v>8</v>
       </c>
-      <c r="F24" s="14">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="14">
-        <v>1</v>
-      </c>
-      <c r="I24" s="14">
-        <v>0</v>
-      </c>
-      <c r="J24" s="18">
-        <v>1</v>
-      </c>
-      <c r="K24" s="18">
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1</v>
+      </c>
+      <c r="K24" s="17">
         <v>15</v>
       </c>
-      <c r="L24" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" ht="45" customHeight="1" spans="1:12">
+      <c r="L24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" ht="45" customHeight="1" spans="1:14">
       <c r="A25" s="9">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13">
+        <v>137</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="12">
         <v>8</v>
       </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14" t="s">
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>2</v>
       </c>
-      <c r="I25" s="14">
-        <v>0</v>
-      </c>
-      <c r="J25" s="14">
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
         <v>16</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>30</v>
       </c>
-      <c r="L25" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" ht="45" customHeight="1" spans="1:12">
+      <c r="L25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" ht="45" customHeight="1" spans="1:14">
       <c r="A26" s="9">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13">
+        <v>139</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12">
         <v>8</v>
       </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14" t="s">
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>3</v>
       </c>
-      <c r="I26" s="14">
-        <v>1</v>
-      </c>
-      <c r="J26" s="14">
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13">
         <v>20</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>20</v>
       </c>
-      <c r="L26" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" ht="45" customHeight="1" spans="1:12">
+      <c r="L26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" ht="45" customHeight="1" spans="1:14">
       <c r="A27" s="9">
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13">
+        <v>143</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="12">
         <v>9</v>
       </c>
-      <c r="F27" s="14">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14" t="s">
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="14">
-        <v>1</v>
-      </c>
-      <c r="I27" s="14">
-        <v>0</v>
-      </c>
-      <c r="J27" s="18">
-        <v>1</v>
-      </c>
-      <c r="K27" s="18">
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1</v>
+      </c>
+      <c r="K27" s="17">
         <v>15</v>
       </c>
-      <c r="L27" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" ht="45" customHeight="1" spans="1:12">
+      <c r="L27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" ht="45" customHeight="1" spans="1:14">
       <c r="A28" s="9">
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13">
+        <v>146</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12">
         <v>9</v>
       </c>
-      <c r="F28" s="14">
-        <v>0</v>
-      </c>
-      <c r="G28" s="14" t="s">
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>2</v>
       </c>
-      <c r="I28" s="14">
-        <v>0</v>
-      </c>
-      <c r="J28" s="14">
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
         <v>16</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>30</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" ht="45" customHeight="1" spans="1:12">
+      <c r="L28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" ht="45" customHeight="1" spans="1:14">
       <c r="A29" s="9">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13">
+        <v>149</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12">
         <v>10</v>
       </c>
-      <c r="F29" s="14">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14" t="s">
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="14">
-        <v>1</v>
-      </c>
-      <c r="I29" s="14">
-        <v>0</v>
-      </c>
-      <c r="J29" s="18">
-        <v>1</v>
-      </c>
-      <c r="K29" s="18">
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1</v>
+      </c>
+      <c r="K29" s="17">
         <v>15</v>
       </c>
-      <c r="L29" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" ht="45" customHeight="1" spans="1:12">
+      <c r="L29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" ht="45" customHeight="1" spans="1:14">
       <c r="A30" s="9">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13">
+        <v>152</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12">
         <v>11</v>
       </c>
-      <c r="F30" s="14">
-        <v>0</v>
-      </c>
-      <c r="G30" s="14" t="s">
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="14">
-        <v>1</v>
-      </c>
-      <c r="I30" s="14">
-        <v>0</v>
-      </c>
-      <c r="J30" s="18">
-        <v>1</v>
-      </c>
-      <c r="K30" s="18">
+      <c r="H30" s="13">
+        <v>1</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <v>1</v>
+      </c>
+      <c r="K30" s="17">
         <v>15</v>
       </c>
-      <c r="L30" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" ht="45" customHeight="1" spans="1:12">
+      <c r="L30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" ht="45" customHeight="1" spans="1:14">
       <c r="A31" s="9">
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13">
+        <v>155</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="12">
         <v>12</v>
       </c>
-      <c r="F31" s="14">
-        <v>0</v>
-      </c>
-      <c r="G31" s="14" t="s">
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="14">
-        <v>1</v>
-      </c>
-      <c r="I31" s="14">
-        <v>0</v>
-      </c>
-      <c r="J31" s="18">
-        <v>1</v>
-      </c>
-      <c r="K31" s="18">
+      <c r="H31" s="13">
+        <v>1</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <v>1</v>
+      </c>
+      <c r="K31" s="17">
         <v>15</v>
       </c>
-      <c r="L31" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" ht="45" customHeight="1" spans="1:12">
+      <c r="L31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" ht="45" customHeight="1" spans="1:14">
       <c r="A32" s="9">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13">
+        <v>158</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12">
         <v>13</v>
       </c>
-      <c r="F32" s="14">
-        <v>0</v>
-      </c>
-      <c r="G32" s="14" t="s">
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="14">
-        <v>1</v>
-      </c>
-      <c r="I32" s="14">
-        <v>0</v>
-      </c>
-      <c r="J32" s="18">
-        <v>1</v>
-      </c>
-      <c r="K32" s="18">
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <v>1</v>
+      </c>
+      <c r="K32" s="17">
         <v>15</v>
       </c>
-      <c r="L32" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" ht="45" customHeight="1" spans="1:12">
+      <c r="L32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" ht="45" customHeight="1" spans="1:14">
       <c r="A33" s="9">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13">
+        <v>160</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="12">
         <v>14</v>
       </c>
-      <c r="F33" s="14">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14" t="s">
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="14">
-        <v>1</v>
-      </c>
-      <c r="I33" s="14">
-        <v>0</v>
-      </c>
-      <c r="J33" s="18">
-        <v>1</v>
-      </c>
-      <c r="K33" s="18">
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
+        <v>1</v>
+      </c>
+      <c r="K33" s="17">
         <v>15</v>
       </c>
-      <c r="L33" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" ht="45" customHeight="1" spans="1:12">
+      <c r="L33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" ht="45" customHeight="1" spans="1:14">
       <c r="A34" s="9">
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13">
+        <v>164</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="12">
         <v>15</v>
       </c>
-      <c r="F34" s="14">
-        <v>0</v>
-      </c>
-      <c r="G34" s="14" t="s">
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="14">
-        <v>1</v>
-      </c>
-      <c r="I34" s="14">
-        <v>0</v>
-      </c>
-      <c r="J34" s="18">
-        <v>1</v>
-      </c>
-      <c r="K34" s="18">
+      <c r="H34" s="13">
+        <v>1</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
+        <v>1</v>
+      </c>
+      <c r="K34" s="17">
         <v>15</v>
       </c>
-      <c r="L34" s="14" t="s">
-        <v>17</v>
+      <c r="L34" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/server/hero/server_skillful.xlsx
+++ b/excels/config/server/hero/server_skillful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="server_skill_exp" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="165">
   <si>
     <t>类型</t>
   </si>
@@ -43,7 +43,7 @@
     <t>效果说明</t>
   </si>
   <si>
-    <t>特殊说明</t>
+    <t>是否为高级技能(普通技能每升10级获得1点高级技能点，普通技能通过经验书升级，高级技能通过高级技能点升级)</t>
   </si>
   <si>
     <t>最大等级</t>
@@ -61,6 +61,9 @@
     <t>index</t>
   </si>
   <si>
+    <t>is_advanced</t>
+  </si>
+  <si>
     <t>max_level</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
     <t>总等级*2%召唤伤害</t>
   </si>
   <si>
-    <t>每升10级自动获得高阶精通点</t>
-  </si>
-  <si>
     <t>abaddon_borrowed_time</t>
   </si>
   <si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>总等级*2%经验获取百分比</t>
-  </si>
-  <si>
-    <t>升级需要消耗1点高阶精通点</t>
   </si>
   <si>
     <t>下标</t>
@@ -1469,7 +1466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1532,6 +1529,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1900,31 +1900,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{A1CDD84E-F5A5-43BE-AC96-2D7C29B3E9E8}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{6E3836DA-E757-4254-B567-928F1C371EC3}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{B850067D-D661-428F-8471-1A6F13291609}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{82580C99-8E31-4AA5-8AC0-868D7D6845A2}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{D143B522-BAA2-4823-AE2B-56050709E6E7}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{9344D22D-C1D2-42AE-8DC2-245303D10392}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E45E3FEE-7C7C-4CFE-8B65-9360CC43E1D3}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A270732D-6CB2-4330-9454-4C094B35EC3D}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B312E139-CEBF-447F-B393-E5E2AD15AF69}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5E756B83-1D87-4FB7-B6FF-2EEE041078D9}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2232,20 +2232,21 @@
   <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="32.125" style="14" customWidth="1"/>
     <col min="6" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:15">
+    <row r="1" ht="96" customHeight="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2256,7 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -2296,17 +2297,20 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -2327,7 +2331,7 @@
         <v>6</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:7">
@@ -2335,13 +2339,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
         <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" s="14">
         <v>30</v>
@@ -2349,7 +2353,7 @@
       <c r="F3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2363,8 +2367,8 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" s="14">
         <v>30</v>
@@ -2372,7 +2376,7 @@
       <c r="F4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2386,8 +2390,8 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" s="14">
         <v>30</v>
@@ -2395,7 +2399,7 @@
       <c r="F5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2409,8 +2413,8 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" s="14">
         <v>30</v>
@@ -2418,7 +2422,7 @@
       <c r="F6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2432,8 +2436,8 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" s="14">
         <v>30</v>
@@ -2441,7 +2445,7 @@
       <c r="F7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2455,8 +2459,8 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" s="14">
         <v>30</v>
@@ -2464,7 +2468,7 @@
       <c r="F8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2478,8 +2482,8 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" s="14">
         <v>30</v>
@@ -2487,7 +2491,7 @@
       <c r="F9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2501,8 +2505,8 @@
       <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" s="14">
         <v>30</v>
@@ -2510,7 +2514,7 @@
       <c r="F10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2524,8 +2528,8 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" s="14">
         <v>30</v>
@@ -2533,7 +2537,7 @@
       <c r="F11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2547,8 +2551,8 @@
       <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" s="14">
         <v>30</v>
@@ -2556,7 +2560,7 @@
       <c r="F12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2570,8 +2574,8 @@
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" s="14">
         <v>30</v>
@@ -2579,7 +2583,7 @@
       <c r="F13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2593,8 +2597,8 @@
       <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" s="14">
         <v>30</v>
@@ -2602,7 +2606,7 @@
       <c r="F14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2616,8 +2620,8 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
-        <v>41</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15" s="14">
         <v>30</v>
@@ -2625,7 +2629,7 @@
       <c r="F15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2639,8 +2643,8 @@
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
-        <v>41</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16" s="14">
         <v>30</v>
@@ -2648,7 +2652,7 @@
       <c r="F16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2662,8 +2666,8 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
-        <v>41</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17" s="14">
         <v>30</v>
@@ -2671,7 +2675,7 @@
       <c r="F17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2686,10 +2690,10 @@
   <sheetPr/>
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O6" sqref="O6"/>
+      <selection pane="topRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2717,37 +2721,37 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:25">
       <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>5</v>
@@ -2789,42 +2793,42 @@
         <v>3</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:25">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="7">
         <v>1</v>
@@ -2845,10 +2849,10 @@
         <v>6</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V2" s="7">
         <v>1</v>
@@ -2860,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:25">
@@ -2868,10 +2872,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="12">
@@ -2881,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
@@ -2900,7 +2904,7 @@
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -2919,10 +2923,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="12">
@@ -2932,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="13">
         <v>2</v>
@@ -2951,7 +2955,7 @@
       </c>
       <c r="M4" s="13"/>
       <c r="N4" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
@@ -2970,10 +2974,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="12">
@@ -2983,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="13">
         <v>3</v>
@@ -3002,10 +3006,10 @@
       </c>
       <c r="M5"/>
       <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
         <v>69</v>
-      </c>
-      <c r="O5" t="s">
-        <v>70</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -3023,10 +3027,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="14">
@@ -3036,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="13">
         <v>1</v>
@@ -3055,10 +3059,10 @@
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
@@ -3076,10 +3080,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="12">
@@ -3089,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="13">
         <v>2</v>
@@ -3107,7 +3111,7 @@
         <v>17</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:15">
@@ -3115,10 +3119,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="12">
@@ -3128,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="13">
         <v>3</v>
@@ -3146,10 +3150,10 @@
         <v>17</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:14">
@@ -3157,10 +3161,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="12">
@@ -3170,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
@@ -3188,7 +3192,7 @@
         <v>17</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:14">
@@ -3196,13 +3200,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="E10" s="12">
         <v>3</v>
@@ -3211,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="13">
         <v>2</v>
@@ -3229,7 +3233,7 @@
         <v>17</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:15">
@@ -3237,10 +3241,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="12">
@@ -3250,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="13">
         <v>3</v>
@@ -3268,10 +3272,10 @@
         <v>17</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:14">
@@ -3279,10 +3283,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="12">
@@ -3292,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
@@ -3310,7 +3314,7 @@
         <v>17</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="1" spans="1:14">
@@ -3318,10 +3322,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="12">
@@ -3331,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="13">
         <v>2</v>
@@ -3349,7 +3353,7 @@
         <v>17</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:14">
@@ -3357,13 +3361,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="E14" s="12">
         <v>4</v>
@@ -3372,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="13">
         <v>3</v>
@@ -3390,7 +3394,7 @@
         <v>17</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" ht="45" customHeight="1" spans="1:14">
@@ -3398,10 +3402,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="12">
@@ -3411,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="13">
         <v>1</v>
@@ -3429,7 +3433,7 @@
         <v>17</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="45" customHeight="1" spans="1:14">
@@ -3437,10 +3441,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="12">
@@ -3450,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="13">
         <v>2</v>
@@ -3468,7 +3472,7 @@
         <v>17</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" ht="45" customHeight="1" spans="1:14">
@@ -3476,10 +3480,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="12">
@@ -3489,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="13">
         <v>3</v>
@@ -3507,7 +3511,7 @@
         <v>17</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="45" customHeight="1" spans="1:14">
@@ -3515,10 +3519,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="12">
@@ -3528,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="13">
         <v>1</v>
@@ -3546,7 +3550,7 @@
         <v>17</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" ht="45" customHeight="1" spans="1:14">
@@ -3554,10 +3558,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="12">
@@ -3567,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19" s="13">
         <v>2</v>
@@ -3585,7 +3589,7 @@
         <v>17</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" ht="45" customHeight="1" spans="1:15">
@@ -3593,10 +3597,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="12">
@@ -3606,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" s="13">
         <v>3</v>
@@ -3624,10 +3628,10 @@
         <v>17</v>
       </c>
       <c r="N20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" ht="45" customHeight="1" spans="1:16">
@@ -3635,10 +3639,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="12">
@@ -3648,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="13">
         <v>1</v>
@@ -3666,13 +3670,13 @@
         <v>17</v>
       </c>
       <c r="N21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:14">
@@ -3680,10 +3684,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="12">
@@ -3693,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="13">
         <v>2</v>
@@ -3711,7 +3715,7 @@
         <v>17</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" ht="45" customHeight="1" spans="1:14">
@@ -3719,10 +3723,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>131</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="12">
@@ -3732,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" s="13">
         <v>3</v>
@@ -3750,7 +3754,7 @@
         <v>17</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" ht="45" customHeight="1" spans="1:14">
@@ -3758,10 +3762,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="12">
@@ -3771,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="13">
         <v>1</v>
@@ -3789,7 +3793,7 @@
         <v>17</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" ht="45" customHeight="1" spans="1:14">
@@ -3797,10 +3801,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="12">
@@ -3810,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H25" s="13">
         <v>2</v>
@@ -3828,7 +3832,7 @@
         <v>17</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" ht="45" customHeight="1" spans="1:14">
@@ -3836,10 +3840,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="12">
@@ -3849,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" s="13">
         <v>3</v>
@@ -3867,7 +3871,7 @@
         <v>17</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" ht="45" customHeight="1" spans="1:14">
@@ -3875,10 +3879,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="12">
@@ -3888,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="13">
         <v>1</v>
@@ -3906,7 +3910,7 @@
         <v>17</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" ht="45" customHeight="1" spans="1:14">
@@ -3914,10 +3918,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="12">
@@ -3927,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" s="13">
         <v>2</v>
@@ -3945,7 +3949,7 @@
         <v>17</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" ht="45" customHeight="1" spans="1:14">
@@ -3953,10 +3957,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="12">
@@ -3966,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29" s="13">
         <v>1</v>
@@ -3984,7 +3988,7 @@
         <v>17</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" ht="45" customHeight="1" spans="1:14">
@@ -3992,10 +3996,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="12">
@@ -4005,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="13">
         <v>1</v>
@@ -4023,7 +4027,7 @@
         <v>17</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" ht="45" customHeight="1" spans="1:14">
@@ -4031,10 +4035,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="12">
@@ -4044,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="13">
         <v>1</v>
@@ -4062,7 +4066,7 @@
         <v>17</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" ht="45" customHeight="1" spans="1:14">
@@ -4070,10 +4074,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="12">
@@ -4083,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32" s="13">
         <v>1</v>
@@ -4101,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" ht="45" customHeight="1" spans="1:14">
@@ -4109,10 +4113,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>160</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>161</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="12">
@@ -4122,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" s="13">
         <v>1</v>
@@ -4140,7 +4144,7 @@
         <v>17</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" ht="45" customHeight="1" spans="1:14">
@@ -4148,10 +4152,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="12">
@@ -4161,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H34" s="13">
         <v>1</v>
@@ -4179,7 +4183,7 @@
         <v>17</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/server/hero/server_skillful.xlsx
+++ b/excels/config/server/hero/server_skillful.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="server_skill_exp" sheetId="3" r:id="rId1"/>
     <sheet name="server_skillful" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="__经验计算表" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">server_skillful!#REF!</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="214">
   <si>
     <t>类型</t>
   </si>
@@ -49,6 +49,12 @@
     <t>最大等级</t>
   </si>
   <si>
+    <t>坐标X</t>
+  </si>
+  <si>
+    <t>坐标Y</t>
+  </si>
+  <si>
     <t>图片</t>
   </si>
   <si>
@@ -61,12 +67,27 @@
     <t>index</t>
   </si>
   <si>
+    <t>#Loccustom_server_skill_main_{}</t>
+  </si>
+  <si>
+    <t>#Loccustom_server_skill_main_{}_desc</t>
+  </si>
+  <si>
     <t>is_advanced</t>
   </si>
   <si>
     <t>max_level</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>img</t>
   </si>
   <si>
@@ -85,7 +106,7 @@
     <t>总等级*2%召唤伤害</t>
   </si>
   <si>
-    <t>abaddon_borrowed_time</t>
+    <t>custom/skv_skill/召唤型</t>
   </si>
   <si>
     <t>24500+lv*500</t>
@@ -97,66 +118,114 @@
     <t>总等级*2%线圈伤害</t>
   </si>
   <si>
+    <t>custom/skv_skill/线圈型</t>
+  </si>
+  <si>
     <t>环绕型</t>
   </si>
   <si>
     <t>总等级*2%环绕伤害</t>
   </si>
   <si>
+    <t>custom/skv_skill/环绕型</t>
+  </si>
+  <si>
     <t>范围型</t>
   </si>
   <si>
     <t>总等级*2%范围伤害</t>
   </si>
   <si>
+    <t>custom/skv_skill/范围型</t>
+  </si>
+  <si>
     <t>弹射型</t>
   </si>
   <si>
     <t>总等级*2%弹射伤害</t>
   </si>
   <si>
+    <t>custom/skv_skill/弹射型</t>
+  </si>
+  <si>
     <t>弹道型</t>
   </si>
   <si>
     <t>总等级*2%弹道伤害</t>
   </si>
   <si>
+    <t>custom/skv_skill/弹道型</t>
+  </si>
+  <si>
     <t>目标型</t>
   </si>
   <si>
     <t>总等级*2%目标伤害</t>
   </si>
   <si>
+    <t>custom/skv_skill/目标型</t>
+  </si>
+  <si>
     <t>持续型</t>
   </si>
   <si>
     <t>总等级*2%持续伤害</t>
   </si>
   <si>
+    <t>custom/skv_skill/持续型</t>
+  </si>
+  <si>
     <t>法球型</t>
   </si>
   <si>
     <t>总等级*2%法球伤害</t>
   </si>
   <si>
+    <t>custom/skv_skill/法球型</t>
+  </si>
+  <si>
     <t>理财型</t>
   </si>
   <si>
     <t>总等级*1%经验获取百分比</t>
   </si>
   <si>
+    <t>custom/skv_skill/理财型</t>
+  </si>
+  <si>
     <t>成长型</t>
   </si>
   <si>
+    <t>custom/skv_skill/成长型</t>
+  </si>
+  <si>
     <t>增益型</t>
   </si>
   <si>
-    <t>独立效果</t>
+    <t>custom/skv_skill/增益型</t>
+  </si>
+  <si>
+    <t>技能急速</t>
   </si>
   <si>
     <t>总等级*2%经验获取百分比</t>
   </si>
   <si>
+    <t>custom/skv_skill/技能急速</t>
+  </si>
+  <si>
+    <t>技能伤害</t>
+  </si>
+  <si>
+    <t>custom/skv_skill/技能伤害</t>
+  </si>
+  <si>
+    <t>蓝耗降低</t>
+  </si>
+  <si>
+    <t>custom/skv_skill/蓝耗降低</t>
+  </si>
+  <si>
     <t>下标</t>
   </si>
   <si>
@@ -190,7 +259,10 @@
     <t>key</t>
   </si>
   <si>
-    <t>type</t>
+    <t>#Loccustom_server_skill_sub_{}</t>
+  </si>
+  <si>
+    <t>#Loccustom_server_skill_sub_{}_desc</t>
   </si>
   <si>
     <t>is_ability</t>
@@ -220,6 +292,9 @@
     <t>null</t>
   </si>
   <si>
+    <t>custom/skv_skill/召唤精通</t>
+  </si>
+  <si>
     <t>skv_summon_duration 0.5</t>
   </si>
   <si>
@@ -227,6 +302,9 @@
   </si>
   <si>
     <t>召唤物强度（攻击力、生命值、攻击速度）增强(LV*10)%</t>
+  </si>
+  <si>
+    <t>custom/skv_skill/强力召唤</t>
   </si>
   <si>
     <t>skv_summon_strength 10</t>
@@ -252,6 +330,9 @@
       </rPr>
       <t>最终伤害</t>
     </r>
+  </si>
+  <si>
+    <t>custom/skv_skill/召唤·进化</t>
   </si>
   <si>
     <t>skv_summon_cooldown 15</t>
@@ -290,6 +371,9 @@
     </r>
   </si>
   <si>
+    <t>custom/skv_skill/线圈增强</t>
+  </si>
+  <si>
     <t>skv_ring_d_final 1</t>
   </si>
   <si>
@@ -300,6 +384,9 @@
   </si>
   <si>
     <t>线圈伤害间隔减少(5*LV)%</t>
+  </si>
+  <si>
+    <t>custom/skv_skill/感应线圈</t>
   </si>
   <si>
     <t>skv_ring_interval 5</t>
@@ -327,6 +414,9 @@
     </r>
   </si>
   <si>
+    <t>custom/skv_skill/线圈·展开</t>
+  </si>
+  <si>
     <t>skv_ring_range 50</t>
   </si>
   <si>
@@ -339,6 +429,9 @@
     <t>环绕速度增加(4*lv)%</t>
   </si>
   <si>
+    <t>custom/skv_skill/快速环绕</t>
+  </si>
+  <si>
     <t>skv_surround_speed 4</t>
   </si>
   <si>
@@ -349,6 +442,9 @@
   </si>
   <si>
     <t>增加环绕物的数量，若有上限则提高对应上限。</t>
+  </si>
+  <si>
+    <t>custom/skv_skill/多重环绕</t>
   </si>
   <si>
     <t>skv_surround_count 0.2</t>
@@ -376,6 +472,9 @@
     </r>
   </si>
   <si>
+    <t>custom/skv_skill/环绕·轨道</t>
+  </si>
+  <si>
     <t>skv_surround_distance 25</t>
   </si>
   <si>
@@ -386,6 +485,9 @@
   </si>
   <si>
     <t>范围型技能范围扩大（5*LV）%</t>
+  </si>
+  <si>
+    <t>custom/skv_skill/范围扩大</t>
   </si>
   <si>
     <t>skv_aoe_radius 5</t>
@@ -413,6 +515,9 @@
     </r>
   </si>
   <si>
+    <t>custom/skv_skill/多重范围</t>
+  </si>
+  <si>
     <t>skv_aoe_d_bonus 5</t>
   </si>
   <si>
@@ -425,6 +530,9 @@
     <t>多重施法，触发时头顶出现X2，多重施法间隔默认0.2秒，不可套娃。</t>
   </si>
   <si>
+    <t>custom/skv_skill/范围·破军</t>
+  </si>
+  <si>
     <t>skv_aoe_chance 10</t>
   </si>
   <si>
@@ -434,6 +542,9 @@
     <t>弹射型技能弹射【衰减效率】减少(5*LV)%</t>
   </si>
   <si>
+    <t>custom/skv_skill/弹射增益</t>
+  </si>
+  <si>
     <t>skv_bounce_reduction 5</t>
   </si>
   <si>
@@ -441,6 +552,9 @@
   </si>
   <si>
     <t>弹射型技能弹射数量增加(LV/3)</t>
+  </si>
+  <si>
+    <t>custom/skv_skill/额外弹射</t>
   </si>
   <si>
     <t>skv_bounce_count 0.334</t>
@@ -476,6 +590,9 @@
     </r>
   </si>
   <si>
+    <t>custom/skv_skill/弹射.飞起</t>
+  </si>
+  <si>
     <t>skv_bounce_increase 10</t>
   </si>
   <si>
@@ -485,6 +602,9 @@
     <t>弹道型技能弹道速度提升（3*LV）%</t>
   </si>
   <si>
+    <t>custom/skv_skill/弹道提速</t>
+  </si>
+  <si>
     <t>skv_missile_speed 3</t>
   </si>
   <si>
@@ -492,6 +612,9 @@
   </si>
   <si>
     <t>弹道型技能弹道数量增加(LV/3)</t>
+  </si>
+  <si>
+    <t>custom/skv_skill/多重弹道</t>
   </si>
   <si>
     <t>skv_missile_count 0.334</t>
@@ -527,6 +650,9 @@
     </r>
   </si>
   <si>
+    <t>custom/skv_skill/弹道·超越</t>
+  </si>
+  <si>
     <t>skv_missile_d_final 50</t>
   </si>
   <si>
@@ -539,6 +665,9 @@
     <t>目标型技能释放时，(LV*2)%概率额外增加1个目标，(LV*0.8)%概率概率增加2个目标，(LV*0.4)%概率额外增加3个目标</t>
   </si>
   <si>
+    <t>custom/skv_skill/多重目标</t>
+  </si>
+  <si>
     <t>skv_targeting_multiple1 2</t>
   </si>
   <si>
@@ -552,6 +681,9 @@
   </si>
   <si>
     <t>目标型技能目标数量增加(LV/3)</t>
+  </si>
+  <si>
+    <t>custom/skv_skill/骰子目标</t>
   </si>
   <si>
     <t>skv_targeting_count 0.334</t>
@@ -579,6 +711,9 @@
     </r>
   </si>
   <si>
+    <t>custom/skv_skill/目标·命运</t>
+  </si>
+  <si>
     <t>skv_targeting_d_final 25</t>
   </si>
   <si>
@@ -588,6 +723,9 @@
     <t>持续性技能持续时间延长(LV*5)%</t>
   </si>
   <si>
+    <t>custom/skv_skill/持续延长</t>
+  </si>
+  <si>
     <t>skv_dot_duration 5</t>
   </si>
   <si>
@@ -595,6 +733,9 @@
   </si>
   <si>
     <t>持续性技能伤害间隔效率增加(lv*5)%</t>
+  </si>
+  <si>
+    <t>custom/skv_skill/持续增益</t>
   </si>
   <si>
     <t>skv_dot_interval 5</t>
@@ -622,6 +763,9 @@
     </r>
   </si>
   <si>
+    <t>custom/skv_skill/持续·群效</t>
+  </si>
+  <si>
     <t>skv_dot_d_final 150</t>
   </si>
   <si>
@@ -631,6 +775,9 @@
     <t>法球型技能触发概率增加(LV*4)%</t>
   </si>
   <si>
+    <t>custom/skv_skill/法球触率</t>
+  </si>
+  <si>
     <t>skv_orb_chance 4</t>
   </si>
   <si>
@@ -640,6 +787,9 @@
     <t>法球型技能触发所需攻击次数减(lv/3)</t>
   </si>
   <si>
+    <t>custom/skv_skill/法球效率</t>
+  </si>
+  <si>
     <t>skv_orb_required 0.334</t>
   </si>
   <si>
@@ -658,6 +808,9 @@
     <t>成长型技能加成提高(lv*5)%</t>
   </si>
   <si>
+    <t>custom/skv_skill/成长快乐</t>
+  </si>
+  <si>
     <t>skv_growth_bonus 5</t>
   </si>
   <si>
@@ -677,9 +830,6 @@
   </si>
   <si>
     <t>skv_all_haste 5</t>
-  </si>
-  <si>
-    <t>技能伤害</t>
   </si>
   <si>
     <r>
@@ -702,9 +852,6 @@
   </si>
   <si>
     <t>skv_all_ability_power 10</t>
-  </si>
-  <si>
-    <t>蓝耗降低</t>
   </si>
   <si>
     <t>技能蓝耗降低(lv*5)%</t>
@@ -1530,7 +1677,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1900,31 +2047,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{6E3836DA-E757-4254-B567-928F1C371EC3}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{D0915ADC-9CE1-44A4-B7EF-EB360CBE08B3}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{82580C99-8E31-4AA5-8AC0-868D7D6845A2}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{9B10A790-3E1B-4688-93D0-566D916A6B26}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{9344D22D-C1D2-42AE-8DC2-245303D10392}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{7EE0BF50-C921-4885-8044-415D25936807}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A270732D-6CB2-4330-9454-4C094B35EC3D}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7A59AD02-ACAA-4AD5-BC5A-3F9020ECD2DB}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5E756B83-1D87-4FB7-B6FF-2EEE041078D9}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6C12E0ED-EDB0-48C2-A43B-307752F1C110}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2230,23 +2377,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="40.375" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.125" style="14" customWidth="1"/>
-    <col min="6" max="7" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="14" customWidth="1"/>
+    <col min="7" max="8" width="8.375" style="14" customWidth="1"/>
+    <col min="9" max="10" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="96" customHeight="1" spans="1:15">
+    <row r="1" ht="54.75" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2262,421 +2410,577 @@
       <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4">
-        <v>1</v>
-      </c>
-      <c r="J1" s="4">
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4">
         <v>2</v>
       </c>
-      <c r="K1" s="4">
+      <c r="N1" s="4">
         <v>3</v>
       </c>
-      <c r="L1" s="4">
+      <c r="O1" s="4">
         <v>4</v>
       </c>
-      <c r="M1" s="4">
+      <c r="P1" s="4">
         <v>5</v>
       </c>
-      <c r="N1" s="4">
+      <c r="Q1" s="4">
         <v>6</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="33" spans="1:15">
+      <c r="R1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="33" spans="1:18">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
+        <v>14</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
         <v>2</v>
       </c>
-      <c r="K2" s="7">
+      <c r="N2" s="7">
         <v>3</v>
       </c>
-      <c r="L2" s="7">
+      <c r="O2" s="7">
         <v>4</v>
       </c>
-      <c r="M2" s="7">
+      <c r="P2" s="7">
         <v>5</v>
       </c>
-      <c r="N2" s="7">
+      <c r="Q2" s="7">
         <v>6</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="57" customHeight="1" spans="1:7">
+      <c r="R2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="14">
         <v>30</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="57" customHeight="1" spans="1:7">
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>806</v>
+      </c>
+      <c r="H3" s="14">
+        <v>90</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="14">
         <v>30</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="57" customHeight="1" spans="1:7">
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>927</v>
+      </c>
+      <c r="H4" s="14">
+        <v>382</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="14">
         <v>30</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="57" customHeight="1" spans="1:7">
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>842</v>
+      </c>
+      <c r="H5" s="14">
+        <v>633</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="57" customHeight="1" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="14">
         <v>30</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:7">
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>699</v>
+      </c>
+      <c r="H6" s="14">
+        <v>199</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="14">
         <v>30</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="57" customHeight="1" spans="1:7">
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>778</v>
+      </c>
+      <c r="H7" s="14">
+        <v>386</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="14">
         <v>30</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:7">
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>728</v>
+      </c>
+      <c r="H8" s="14">
+        <v>540</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="14">
         <v>30</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="57" customHeight="1" spans="1:7">
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>325</v>
+      </c>
+      <c r="H9" s="14">
+        <v>199</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="57" customHeight="1" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="14">
         <v>30</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="57" customHeight="1" spans="1:7">
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>272</v>
+      </c>
+      <c r="H10" s="14">
+        <v>382</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="57" customHeight="1" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="14">
         <v>30</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="57" customHeight="1" spans="1:7">
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>319</v>
+      </c>
+      <c r="H11" s="14">
+        <v>542</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="57" customHeight="1" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="14">
         <v>30</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="57" customHeight="1" spans="1:7">
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>232</v>
+      </c>
+      <c r="H12" s="14">
+        <v>90</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="57" customHeight="1" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="14">
         <v>30</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" ht="57" customHeight="1" spans="1:7">
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>115</v>
+      </c>
+      <c r="H13" s="14">
+        <v>380</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="57" customHeight="1" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="14">
         <v>30</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" ht="57" customHeight="1" spans="1:7">
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>201</v>
+      </c>
+      <c r="H14" s="14">
+        <v>632</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="57" customHeight="1" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="14">
         <v>30</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" ht="57" customHeight="1" spans="1:7">
+      <c r="F15" s="14">
+        <v>2</v>
+      </c>
+      <c r="G15" s="14">
+        <v>422</v>
+      </c>
+      <c r="H15" s="14">
+        <v>420</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="57" customHeight="1" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="14">
         <v>30</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" ht="57" customHeight="1" spans="1:7">
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>522</v>
+      </c>
+      <c r="H16" s="14">
+        <v>297</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="14">
         <v>30</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>18</v>
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
+        <v>634</v>
+      </c>
+      <c r="H17" s="14">
+        <v>420</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2690,16 +2994,16 @@
   <sheetPr/>
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B29" sqref="B29"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.34166666666667" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="55.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="68.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
@@ -2721,40 +3025,40 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:25">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M1" s="4">
         <v>0</v>
@@ -2778,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U1" s="4">
         <v>0</v>
@@ -2793,42 +3097,46 @@
         <v>3</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:25">
       <c r="A2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N2" s="7">
         <v>1</v>
@@ -2849,10 +3157,10 @@
         <v>6</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="V2" s="7">
         <v>1</v>
@@ -2864,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:25">
@@ -2872,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="12">
@@ -2885,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
@@ -2900,11 +3208,11 @@
         <v>15</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -2923,10 +3231,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="12">
@@ -2936,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H4" s="13">
         <v>2</v>
@@ -2951,11 +3259,11 @@
         <v>30</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="M4" s="13"/>
       <c r="N4" s="13" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
@@ -2974,10 +3282,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="12">
@@ -2987,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H5" s="13">
         <v>3</v>
@@ -3002,14 +3310,14 @@
         <v>20</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -3027,10 +3335,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="14">
@@ -3040,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H6" s="13">
         <v>1</v>
@@ -3055,14 +3363,14 @@
         <v>15</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
@@ -3080,10 +3388,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="12">
@@ -3093,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H7" s="13">
         <v>2</v>
@@ -3108,10 +3416,10 @@
         <v>30</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:15">
@@ -3119,10 +3427,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="12">
@@ -3132,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H8" s="13">
         <v>3</v>
@@ -3147,13 +3455,13 @@
         <v>20</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:14">
@@ -3161,10 +3469,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="12">
@@ -3174,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
@@ -3189,10 +3497,10 @@
         <v>15</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:14">
@@ -3200,13 +3508,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12">
         <v>3</v>
@@ -3215,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H10" s="13">
         <v>2</v>
@@ -3230,10 +3538,10 @@
         <v>30</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:15">
@@ -3241,10 +3549,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="12">
@@ -3254,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H11" s="13">
         <v>3</v>
@@ -3269,13 +3577,13 @@
         <v>20</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:14">
@@ -3283,10 +3591,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="12">
@@ -3296,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
@@ -3311,10 +3619,10 @@
         <v>15</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="1" spans="1:14">
@@ -3322,10 +3630,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="12">
@@ -3335,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H13" s="13">
         <v>2</v>
@@ -3350,10 +3658,10 @@
         <v>30</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:14">
@@ -3361,13 +3669,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="E14" s="12">
         <v>4</v>
@@ -3376,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H14" s="13">
         <v>3</v>
@@ -3391,10 +3699,10 @@
         <v>20</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" ht="45" customHeight="1" spans="1:14">
@@ -3402,10 +3710,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="12">
@@ -3415,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H15" s="13">
         <v>1</v>
@@ -3430,10 +3738,10 @@
         <v>15</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" ht="45" customHeight="1" spans="1:14">
@@ -3441,10 +3749,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="12">
@@ -3454,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H16" s="13">
         <v>2</v>
@@ -3469,10 +3777,10 @@
         <v>30</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" ht="45" customHeight="1" spans="1:14">
@@ -3480,10 +3788,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="12">
@@ -3493,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H17" s="13">
         <v>3</v>
@@ -3508,10 +3816,10 @@
         <v>20</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" ht="45" customHeight="1" spans="1:14">
@@ -3519,10 +3827,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="12">
@@ -3532,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H18" s="13">
         <v>1</v>
@@ -3547,10 +3855,10 @@
         <v>15</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" ht="45" customHeight="1" spans="1:14">
@@ -3558,10 +3866,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="12">
@@ -3571,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H19" s="13">
         <v>2</v>
@@ -3586,10 +3894,10 @@
         <v>30</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" ht="45" customHeight="1" spans="1:15">
@@ -3597,10 +3905,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="12">
@@ -3610,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H20" s="13">
         <v>3</v>
@@ -3625,13 +3933,13 @@
         <v>20</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" ht="45" customHeight="1" spans="1:16">
@@ -3639,10 +3947,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="12">
@@ -3652,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H21" s="13">
         <v>1</v>
@@ -3667,16 +3975,16 @@
         <v>15</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:14">
@@ -3684,10 +3992,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="12">
@@ -3697,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H22" s="13">
         <v>2</v>
@@ -3712,10 +4020,10 @@
         <v>30</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" ht="45" customHeight="1" spans="1:14">
@@ -3723,10 +4031,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="12">
@@ -3736,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H23" s="13">
         <v>3</v>
@@ -3751,10 +4059,10 @@
         <v>20</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" ht="45" customHeight="1" spans="1:14">
@@ -3762,10 +4070,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="12">
@@ -3775,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H24" s="13">
         <v>1</v>
@@ -3790,10 +4098,10 @@
         <v>15</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" ht="45" customHeight="1" spans="1:14">
@@ -3801,10 +4109,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="12">
@@ -3814,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H25" s="13">
         <v>2</v>
@@ -3829,10 +4137,10 @@
         <v>30</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" ht="45" customHeight="1" spans="1:14">
@@ -3840,10 +4148,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="12">
@@ -3853,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H26" s="13">
         <v>3</v>
@@ -3868,10 +4176,10 @@
         <v>20</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" ht="45" customHeight="1" spans="1:14">
@@ -3879,10 +4187,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="12">
@@ -3892,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H27" s="13">
         <v>1</v>
@@ -3907,10 +4215,10 @@
         <v>15</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" ht="45" customHeight="1" spans="1:14">
@@ -3918,10 +4226,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="12">
@@ -3931,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H28" s="13">
         <v>2</v>
@@ -3946,10 +4254,10 @@
         <v>30</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" ht="45" customHeight="1" spans="1:14">
@@ -3957,10 +4265,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="12">
@@ -3970,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H29" s="13">
         <v>1</v>
@@ -3985,10 +4293,10 @@
         <v>15</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" ht="45" customHeight="1" spans="1:14">
@@ -3996,10 +4304,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="12">
@@ -4009,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H30" s="13">
         <v>1</v>
@@ -4024,10 +4332,10 @@
         <v>15</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" ht="45" customHeight="1" spans="1:14">
@@ -4035,10 +4343,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="12">
@@ -4048,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H31" s="13">
         <v>1</v>
@@ -4063,10 +4371,10 @@
         <v>15</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" ht="45" customHeight="1" spans="1:14">
@@ -4074,10 +4382,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="12">
@@ -4087,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H32" s="13">
         <v>1</v>
@@ -4102,10 +4410,10 @@
         <v>15</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" ht="45" customHeight="1" spans="1:14">
@@ -4113,10 +4421,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="12">
@@ -4126,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H33" s="13">
         <v>1</v>
@@ -4141,10 +4449,10 @@
         <v>15</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" ht="45" customHeight="1" spans="1:14">
@@ -4152,10 +4460,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="12">
@@ -4165,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H34" s="13">
         <v>1</v>
@@ -4180,10 +4488,10 @@
         <v>15</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4223,7 +4531,7 @@
   <dimension ref="A2:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
